--- a/CourseCardSystem/Skill/SkillConfig.xlsx
+++ b/CourseCardSystem/Skill/SkillConfig.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="135">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -196,7 +196,10 @@
 1：绝对数值</t>
   </si>
   <si>
-    <t>skill_helm_reduce_wind</t>
+    <t>skill_reduce_wind</t>
+  </si>
+  <si>
+    <t>19,20</t>
   </si>
   <si>
     <t>wind -10%</t>
@@ -208,9 +211,6 @@
     <t>作用的球杆id，0表示对所有球杆生效，不配置表示不对球杆生效</t>
   </si>
   <si>
-    <t>skill_reduce_wind</t>
-  </si>
-  <si>
     <t>作用的球类型， 需要同时满足全部条件才生效</t>
   </si>
   <si>
@@ -410,9 +410,6 @@
   </si>
   <si>
     <t>YX</t>
-  </si>
-  <si>
-    <t>skill_sniper_reduce_wind</t>
   </si>
   <si>
     <t>Moon wind resistance10%</t>
@@ -887,14 +884,14 @@
       <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.88"/>
-    <col customWidth="1" min="3" max="3" width="21.0"/>
-    <col customWidth="1" min="4" max="4" width="8.75"/>
-    <col customWidth="1" min="6" max="6" width="24.38"/>
-    <col customWidth="1" min="9" max="11" width="21.5"/>
-    <col customWidth="1" min="12" max="12" width="32.0"/>
+    <col customWidth="1" min="1" max="1" width="31.86"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="4" max="4" width="10.0"/>
+    <col customWidth="1" min="6" max="6" width="24.57"/>
+    <col customWidth="1" min="9" max="11" width="24.57"/>
+    <col customWidth="1" min="12" max="12" width="36.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1599,7 +1596,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H16" s="11">
         <v>8.0</v>
@@ -1607,8 +1604,8 @@
       <c r="I16" s="11">
         <v>0.0</v>
       </c>
-      <c r="K16" s="11">
-        <v>-1.0</v>
+      <c r="J16" s="11">
+        <v>0.0</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>41</v>
@@ -1633,7 +1630,7 @@
         <v>40</v>
       </c>
       <c r="G17" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H17" s="11">
         <v>16.0</v>
@@ -1641,8 +1638,8 @@
       <c r="I17" s="11">
         <v>0.0</v>
       </c>
-      <c r="K17" s="11">
-        <v>-1.0</v>
+      <c r="J17" s="11">
+        <v>0.0</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>41</v>
@@ -1667,7 +1664,7 @@
         <v>40</v>
       </c>
       <c r="G18" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H18" s="11">
         <v>24.0</v>
@@ -1675,8 +1672,8 @@
       <c r="I18" s="11">
         <v>0.0</v>
       </c>
-      <c r="K18" s="11">
-        <v>-1.0</v>
+      <c r="J18" s="11">
+        <v>0.0</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>41</v>
@@ -1701,7 +1698,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H19" s="11">
         <v>32.0</v>
@@ -1709,8 +1706,8 @@
       <c r="I19" s="11">
         <v>0.0</v>
       </c>
-      <c r="K19" s="11">
-        <v>-1.0</v>
+      <c r="J19" s="11">
+        <v>0.0</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>41</v>
@@ -1735,7 +1732,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H20" s="11">
         <v>40.0</v>
@@ -1743,8 +1740,8 @@
       <c r="I20" s="11">
         <v>0.0</v>
       </c>
-      <c r="K20" s="11">
-        <v>-1.0</v>
+      <c r="J20" s="11">
+        <v>0.0</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>41</v>
@@ -1763,7 +1760,7 @@
         <v>40</v>
       </c>
       <c r="G21" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H21" s="11">
         <v>48.0</v>
@@ -1771,8 +1768,8 @@
       <c r="I21" s="11">
         <v>0.0</v>
       </c>
-      <c r="K21" s="11">
-        <v>-1.0</v>
+      <c r="J21" s="11">
+        <v>0.0</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>41</v>
@@ -1795,7 +1792,7 @@
         <v>40</v>
       </c>
       <c r="G22" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H22" s="11">
         <v>56.0</v>
@@ -1803,8 +1800,8 @@
       <c r="I22" s="11">
         <v>0.0</v>
       </c>
-      <c r="K22" s="11">
-        <v>-1.0</v>
+      <c r="J22" s="11">
+        <v>0.0</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>41</v>
@@ -1979,7 +1976,7 @@
         <v>60</v>
       </c>
       <c r="G27" s="11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H27" s="11">
         <v>-10.0</v>
@@ -1987,12 +1984,12 @@
       <c r="I27" s="11">
         <v>0.0</v>
       </c>
-      <c r="J27" s="11">
-        <v>19.0</v>
+      <c r="J27" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>42</v>
@@ -2003,20 +2000,20 @@
         <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
         <v>1026.0</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G28" s="11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H28" s="11">
         <v>-20.0</v>
@@ -2024,12 +2021,12 @@
       <c r="I28" s="11">
         <v>0.0</v>
       </c>
-      <c r="J28" s="11">
-        <v>19.0</v>
+      <c r="J28" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>42</v>
@@ -2040,7 +2037,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>65</v>
@@ -2053,7 +2050,7 @@
         <v>66</v>
       </c>
       <c r="G29" s="11">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H29" s="11">
         <v>30.0</v>
@@ -2930,7 +2927,7 @@
         <v>66</v>
       </c>
       <c r="G59" s="20">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H59" s="20">
         <v>15.0</v>
@@ -2988,10 +2985,10 @@
         <v>92</v>
       </c>
       <c r="G61" s="20">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H61" s="20">
-        <v>-50.0</v>
+        <v>50.0</v>
       </c>
       <c r="I61" s="20">
         <v>0.0</v>
@@ -3017,7 +3014,7 @@
         <v>66</v>
       </c>
       <c r="G62" s="20">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H62" s="20">
         <v>20.0</v>
@@ -3075,7 +3072,7 @@
         <v>50</v>
       </c>
       <c r="G64" s="20">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H64" s="20">
         <v>20.0</v>
@@ -3102,7 +3099,7 @@
         <v>78</v>
       </c>
       <c r="G65" s="20">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H65" s="23">
         <v>20.0</v>
@@ -4872,7 +4869,7 @@
         <v>127</v>
       </c>
       <c r="G130" s="35">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H130" s="35">
         <v>20.0</v>
@@ -4900,7 +4897,7 @@
         <v>127</v>
       </c>
       <c r="G131" s="35">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H131" s="35">
         <v>40.0</v>
@@ -4928,7 +4925,7 @@
         <v>127</v>
       </c>
       <c r="G132" s="35">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="H132" s="35">
         <v>60.0</v>
@@ -5033,59 +5030,9 @@
     </row>
     <row r="136">
       <c r="C136" s="10"/>
-      <c r="E136" s="11">
-        <v>1167.0</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G136" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="H136" s="11">
-        <v>-10.0</v>
-      </c>
-      <c r="I136" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J136" s="11">
-        <v>20.0</v>
-      </c>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M136" s="11" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="137">
       <c r="C137" s="10"/>
-      <c r="E137" s="11">
-        <v>1168.0</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G137" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="H137" s="11">
-        <v>-20.0</v>
-      </c>
-      <c r="I137" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J137" s="11">
-        <v>20.0</v>
-      </c>
-      <c r="K137" s="11"/>
-      <c r="L137" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M137" s="11" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="138">
       <c r="C138" s="10"/>
@@ -7603,7 +7550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="10"/>
@@ -8110,7 +8057,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28">
@@ -8150,7 +8097,7 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30">
@@ -8190,7 +8137,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32">
@@ -8240,7 +8187,7 @@
         <v>1096.0</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E34" s="42"/>
       <c r="F34" s="43">

--- a/CourseCardSystem/Skill/SkillConfig.xlsx
+++ b/CourseCardSystem/Skill/SkillConfig.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="142">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -196,21 +196,21 @@
 1：绝对数值</t>
   </si>
   <si>
+    <t>skill_helm_reduce_wind</t>
+  </si>
+  <si>
+    <t>wind -10%</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>作用的球杆id，0表示对所有球杆生效，不配置表示不对球杆生效</t>
+  </si>
+  <si>
     <t>skill_reduce_wind</t>
   </si>
   <si>
-    <t>19,20</t>
-  </si>
-  <si>
-    <t>wind -10%</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>作用的球杆id，0表示对所有球杆生效，不配置表示不对球杆生效</t>
-  </si>
-  <si>
     <t>作用的球类型， 需要同时满足全部条件才生效</t>
   </si>
   <si>
@@ -274,45 +274,63 @@
     <t>Earth_wind -10%</t>
   </si>
   <si>
+    <t>zzh</t>
+  </si>
+  <si>
+    <t>jump ball power +8%（14）</t>
+  </si>
+  <si>
+    <t>jump ball power +8%（22）</t>
+  </si>
+  <si>
+    <t>skill_spinner_power_up</t>
+  </si>
+  <si>
+    <t>Spinner_power +8%</t>
+  </si>
+  <si>
+    <t>jump ball power +8%（30）</t>
+  </si>
+  <si>
+    <t>jump ball power +8%（38）</t>
+  </si>
+  <si>
+    <t>jump ball power +8%（46）</t>
+  </si>
+  <si>
+    <t>ball_bounce +15%</t>
+  </si>
+  <si>
+    <t>jump ball power +8%（54）</t>
+  </si>
+  <si>
+    <t>wind resistance</t>
+  </si>
+  <si>
+    <t>Spinner wind resistance50%</t>
+  </si>
+  <si>
+    <t>ball_bounce +15%（30）</t>
+  </si>
+  <si>
+    <t>Helm_side_spin +20</t>
+  </si>
+  <si>
+    <t>Spinner_power +12%（20）</t>
+  </si>
+  <si>
     <t>jump ball power +5%</t>
   </si>
   <si>
-    <t>zzh</t>
+    <t>wxj</t>
+  </si>
+  <si>
+    <t>jump ball bounce +5%</t>
   </si>
   <si>
     <t>jump ball power +8%</t>
   </si>
   <si>
-    <t>skill_spinner_power_up</t>
-  </si>
-  <si>
-    <t>Spinner_power +8%</t>
-  </si>
-  <si>
-    <t>ball_bounce +15%</t>
-  </si>
-  <si>
-    <t>wind resistance</t>
-  </si>
-  <si>
-    <t>Spinner wind resistance50%</t>
-  </si>
-  <si>
-    <t>ball_bounce +5%</t>
-  </si>
-  <si>
-    <t>Helm_side_spin +20</t>
-  </si>
-  <si>
-    <t>Spinner_side_spin +20</t>
-  </si>
-  <si>
-    <t>wxj</t>
-  </si>
-  <si>
-    <t>jump ball bounce +5%</t>
-  </si>
-  <si>
     <t>earth_top_spin +10</t>
   </si>
   <si>
@@ -410,6 +428,9 @@
   </si>
   <si>
     <t>YX</t>
+  </si>
+  <si>
+    <t>skill_sniper_reduce_wind</t>
   </si>
   <si>
     <t>Moon wind resistance10%</t>
@@ -884,14 +905,14 @@
       <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.86"/>
-    <col customWidth="1" min="3" max="3" width="24.0"/>
-    <col customWidth="1" min="4" max="4" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="24.57"/>
-    <col customWidth="1" min="9" max="11" width="24.57"/>
-    <col customWidth="1" min="12" max="12" width="36.57"/>
+    <col customWidth="1" min="1" max="1" width="27.88"/>
+    <col customWidth="1" min="3" max="3" width="21.0"/>
+    <col customWidth="1" min="4" max="4" width="8.75"/>
+    <col customWidth="1" min="6" max="6" width="24.38"/>
+    <col customWidth="1" min="9" max="11" width="21.5"/>
+    <col customWidth="1" min="12" max="12" width="32.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1596,7 +1617,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H16" s="11">
         <v>8.0</v>
@@ -1604,8 +1625,8 @@
       <c r="I16" s="11">
         <v>0.0</v>
       </c>
-      <c r="J16" s="11">
-        <v>0.0</v>
+      <c r="K16" s="11">
+        <v>-1.0</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>41</v>
@@ -1630,7 +1651,7 @@
         <v>40</v>
       </c>
       <c r="G17" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H17" s="11">
         <v>16.0</v>
@@ -1638,8 +1659,8 @@
       <c r="I17" s="11">
         <v>0.0</v>
       </c>
-      <c r="J17" s="11">
-        <v>0.0</v>
+      <c r="K17" s="11">
+        <v>-1.0</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>41</v>
@@ -1664,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="G18" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" s="11">
         <v>24.0</v>
@@ -1672,8 +1693,8 @@
       <c r="I18" s="11">
         <v>0.0</v>
       </c>
-      <c r="J18" s="11">
-        <v>0.0</v>
+      <c r="K18" s="11">
+        <v>-1.0</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>41</v>
@@ -1698,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H19" s="11">
         <v>32.0</v>
@@ -1706,8 +1727,8 @@
       <c r="I19" s="11">
         <v>0.0</v>
       </c>
-      <c r="J19" s="11">
-        <v>0.0</v>
+      <c r="K19" s="11">
+        <v>-1.0</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>41</v>
@@ -1732,7 +1753,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H20" s="11">
         <v>40.0</v>
@@ -1740,8 +1761,8 @@
       <c r="I20" s="11">
         <v>0.0</v>
       </c>
-      <c r="J20" s="11">
-        <v>0.0</v>
+      <c r="K20" s="11">
+        <v>-1.0</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>41</v>
@@ -1760,7 +1781,7 @@
         <v>40</v>
       </c>
       <c r="G21" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" s="11">
         <v>48.0</v>
@@ -1768,8 +1789,8 @@
       <c r="I21" s="11">
         <v>0.0</v>
       </c>
-      <c r="J21" s="11">
-        <v>0.0</v>
+      <c r="K21" s="11">
+        <v>-1.0</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>41</v>
@@ -1792,7 +1813,7 @@
         <v>40</v>
       </c>
       <c r="G22" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" s="11">
         <v>56.0</v>
@@ -1800,8 +1821,8 @@
       <c r="I22" s="11">
         <v>0.0</v>
       </c>
-      <c r="J22" s="11">
-        <v>0.0</v>
+      <c r="K22" s="11">
+        <v>-1.0</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>41</v>
@@ -1976,7 +1997,7 @@
         <v>60</v>
       </c>
       <c r="G27" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H27" s="11">
         <v>-10.0</v>
@@ -1984,12 +2005,12 @@
       <c r="I27" s="11">
         <v>0.0</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>61</v>
+      <c r="J27" s="11">
+        <v>19.0</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>42</v>
@@ -2000,20 +2021,20 @@
         <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
         <v>1026.0</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G28" s="11">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H28" s="11">
         <v>-20.0</v>
@@ -2021,12 +2042,12 @@
       <c r="I28" s="11">
         <v>0.0</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>61</v>
+      <c r="J28" s="11">
+        <v>19.0</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>42</v>
@@ -2037,7 +2058,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>65</v>
@@ -2050,7 +2071,7 @@
         <v>66</v>
       </c>
       <c r="G29" s="11">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H29" s="11">
         <v>30.0</v>
@@ -2727,7 +2748,7 @@
         <v>1.0</v>
       </c>
       <c r="H52" s="20">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I52" s="21">
         <v>0.0</v>
@@ -2737,10 +2758,10 @@
         <v>2.0</v>
       </c>
       <c r="L52" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="53">
@@ -2756,7 +2777,7 @@
         <v>1.0</v>
       </c>
       <c r="H53" s="20">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="I53" s="21">
         <v>0.0</v>
@@ -2766,10 +2787,10 @@
         <v>2.0</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
@@ -2785,7 +2806,7 @@
         <v>1.0</v>
       </c>
       <c r="H54" s="20">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="I54" s="21">
         <v>0.0</v>
@@ -2798,7 +2819,7 @@
         <v>88</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
@@ -2827,7 +2848,7 @@
         <v>90</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
@@ -2843,7 +2864,7 @@
         <v>1.0</v>
       </c>
       <c r="H56" s="20">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="I56" s="21">
         <v>0.0</v>
@@ -2853,10 +2874,10 @@
         <v>2.0</v>
       </c>
       <c r="L56" s="21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
@@ -2872,7 +2893,7 @@
         <v>1.0</v>
       </c>
       <c r="H57" s="20">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="I57" s="21">
         <v>0.0</v>
@@ -2882,10 +2903,10 @@
         <v>2.0</v>
       </c>
       <c r="L57" s="21" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
@@ -2901,7 +2922,7 @@
         <v>1.0</v>
       </c>
       <c r="H58" s="20">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="I58" s="21">
         <v>0.0</v>
@@ -2911,10 +2932,10 @@
         <v>2.0</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
@@ -2927,7 +2948,7 @@
         <v>66</v>
       </c>
       <c r="G59" s="20">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H59" s="20">
         <v>15.0</v>
@@ -2940,10 +2961,10 @@
         <v>2.0</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
@@ -2959,7 +2980,7 @@
         <v>1.0</v>
       </c>
       <c r="H60" s="20">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="I60" s="21">
         <v>0.0</v>
@@ -2969,10 +2990,10 @@
         <v>2.0</v>
       </c>
       <c r="L60" s="21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
@@ -2982,13 +3003,13 @@
         <v>1059.0</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G61" s="20">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H61" s="20">
-        <v>50.0</v>
+        <v>-50.0</v>
       </c>
       <c r="I61" s="20">
         <v>0.0</v>
@@ -2998,10 +3019,10 @@
       </c>
       <c r="K61" s="22"/>
       <c r="L61" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62">
@@ -3014,10 +3035,10 @@
         <v>66</v>
       </c>
       <c r="G62" s="20">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H62" s="20">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="I62" s="21">
         <v>0.0</v>
@@ -3027,10 +3048,10 @@
         <v>2.0</v>
       </c>
       <c r="L62" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
@@ -3046,7 +3067,7 @@
         <v>1.0</v>
       </c>
       <c r="H63" s="20">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
       <c r="I63" s="21">
         <v>0.0</v>
@@ -3056,10 +3077,10 @@
         <v>2.0</v>
       </c>
       <c r="L63" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="64" ht="18.75" customHeight="1">
@@ -3072,7 +3093,7 @@
         <v>50</v>
       </c>
       <c r="G64" s="20">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H64" s="20">
         <v>20.0</v>
@@ -3085,10 +3106,10 @@
       </c>
       <c r="K64" s="22"/>
       <c r="L64" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
@@ -3096,7 +3117,7 @@
         <v>1097.0</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G65" s="20">
         <v>1.0</v>
@@ -3112,10 +3133,10 @@
       </c>
       <c r="K65" s="22"/>
       <c r="L65" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -3140,10 +3161,10 @@
         <v>2.0</v>
       </c>
       <c r="L66" s="27" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
@@ -3168,10 +3189,10 @@
         <v>2.0</v>
       </c>
       <c r="L67" s="27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68">
@@ -3196,10 +3217,10 @@
         <v>2.0</v>
       </c>
       <c r="L68" s="29" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
@@ -3224,10 +3245,10 @@
       </c>
       <c r="K69" s="24"/>
       <c r="L69" s="24" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
@@ -3252,10 +3273,10 @@
       </c>
       <c r="K70" s="24"/>
       <c r="L70" s="24" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
@@ -3280,10 +3301,10 @@
         <v>2.0</v>
       </c>
       <c r="L71" s="27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72">
@@ -3308,10 +3329,10 @@
         <v>2.0</v>
       </c>
       <c r="L72" s="27" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73">
@@ -3334,10 +3355,10 @@
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
       <c r="L73" s="29" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
@@ -3362,10 +3383,10 @@
       </c>
       <c r="K74" s="24"/>
       <c r="L74" s="24" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75">
@@ -3390,10 +3411,10 @@
       </c>
       <c r="K75" s="24"/>
       <c r="L75" s="24" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76">
@@ -3418,10 +3439,10 @@
         <v>2.0</v>
       </c>
       <c r="L76" s="27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77">
@@ -3446,10 +3467,10 @@
         <v>2.0</v>
       </c>
       <c r="L77" s="27" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78">
@@ -3474,10 +3495,10 @@
         <v>2.0</v>
       </c>
       <c r="L78" s="29" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79">
@@ -3502,10 +3523,10 @@
       </c>
       <c r="K79" s="24"/>
       <c r="L79" s="24" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80">
@@ -3530,10 +3551,10 @@
       </c>
       <c r="K80" s="24"/>
       <c r="L80" s="24" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81">
@@ -3560,7 +3581,7 @@
         <v>85</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82">
@@ -3568,7 +3589,7 @@
         <v>1079.0</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G82" s="24">
         <v>4.0</v>
@@ -3584,10 +3605,10 @@
       </c>
       <c r="K82" s="30"/>
       <c r="L82" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M82" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="M82" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="83">
@@ -3612,10 +3633,10 @@
         <v>2.0</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84">
@@ -3640,10 +3661,10 @@
         <v>2.0</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85">
@@ -3668,10 +3689,10 @@
         <v>2.0</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
@@ -3680,7 +3701,7 @@
         <v>1083.0</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G86" s="16">
         <v>1.0</v>
@@ -3696,10 +3717,10 @@
       </c>
       <c r="K86" s="16"/>
       <c r="L86" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87">
@@ -3724,10 +3745,10 @@
         <v>2.0</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88">
@@ -3752,10 +3773,10 @@
         <v>2.0</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89">
@@ -3780,10 +3801,10 @@
         <v>2.0</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90">
@@ -3792,7 +3813,7 @@
         <v>1087.0</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G90" s="16">
         <v>1.0</v>
@@ -3808,10 +3829,10 @@
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91">
@@ -3836,10 +3857,10 @@
         <v>2.0</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92">
@@ -3848,7 +3869,7 @@
         <v>1089.0</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G92" s="16">
         <v>4.0</v>
@@ -3864,10 +3885,10 @@
       </c>
       <c r="K92" s="16"/>
       <c r="L92" s="16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93">
@@ -3892,10 +3913,10 @@
         <v>2.0</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94">
@@ -3904,7 +3925,7 @@
         <v>1091.0</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G94" s="16">
         <v>4.0</v>
@@ -3920,10 +3941,10 @@
       </c>
       <c r="K94" s="16"/>
       <c r="L94" s="16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95">
@@ -3948,10 +3969,10 @@
         <v>2.0</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96">
@@ -3960,7 +3981,7 @@
         <v>1093.0</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G96" s="16">
         <v>4.0</v>
@@ -3976,10 +3997,10 @@
       </c>
       <c r="K96" s="16"/>
       <c r="L96" s="16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97">
@@ -3988,7 +4009,7 @@
         <v>1094.0</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G97" s="16">
         <v>1.0</v>
@@ -4004,10 +4025,10 @@
       </c>
       <c r="K97" s="16"/>
       <c r="L97" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98">
@@ -4016,7 +4037,7 @@
         <v>1095.0</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G98" s="16">
         <v>1.0</v>
@@ -4032,10 +4053,10 @@
       </c>
       <c r="K98" s="16"/>
       <c r="L98" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="M98" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="M98" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="99">
@@ -4061,10 +4082,10 @@
         <v>2.0</v>
       </c>
       <c r="L99" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100">
@@ -4090,7 +4111,7 @@
       </c>
       <c r="L100" s="33"/>
       <c r="M100" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101">
@@ -4116,7 +4137,7 @@
       </c>
       <c r="L101" s="33"/>
       <c r="M101" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
@@ -4142,7 +4163,7 @@
       </c>
       <c r="L102" s="33"/>
       <c r="M102" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103">
@@ -4168,7 +4189,7 @@
       </c>
       <c r="L103" s="33"/>
       <c r="M103" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
@@ -4194,7 +4215,7 @@
       </c>
       <c r="L104" s="33"/>
       <c r="M104" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105">
@@ -4220,7 +4241,7 @@
       </c>
       <c r="L105" s="33"/>
       <c r="M105" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106">
@@ -4246,7 +4267,7 @@
       </c>
       <c r="L106" s="33"/>
       <c r="M106" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107">
@@ -4272,7 +4293,7 @@
       </c>
       <c r="L107" s="33"/>
       <c r="M107" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
@@ -4298,7 +4319,7 @@
       </c>
       <c r="L108" s="33"/>
       <c r="M108" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109">
@@ -4324,7 +4345,7 @@
       </c>
       <c r="L109" s="33"/>
       <c r="M109" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110">
@@ -4333,7 +4354,7 @@
         <v>1142.0</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G110" s="32">
         <v>7.0</v>
@@ -4348,7 +4369,7 @@
       <c r="K110" s="33"/>
       <c r="L110" s="33"/>
       <c r="M110" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111">
@@ -4357,7 +4378,7 @@
         <v>1143.0</v>
       </c>
       <c r="F111" s="32" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G111" s="32">
         <v>1.0</v>
@@ -4374,7 +4395,7 @@
       <c r="K111" s="33"/>
       <c r="L111" s="33"/>
       <c r="M111" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112">
@@ -4383,7 +4404,7 @@
         <v>1144.0</v>
       </c>
       <c r="F112" s="32" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G112" s="32">
         <v>1.0</v>
@@ -4400,7 +4421,7 @@
       <c r="K112" s="33"/>
       <c r="L112" s="33"/>
       <c r="M112" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
@@ -4426,7 +4447,7 @@
       <c r="K113" s="33"/>
       <c r="L113" s="33"/>
       <c r="M113" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114">
@@ -4435,7 +4456,7 @@
         <v>1146.0</v>
       </c>
       <c r="F114" s="32" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G114" s="32">
         <v>7.0</v>
@@ -4452,7 +4473,7 @@
       <c r="K114" s="33"/>
       <c r="L114" s="33"/>
       <c r="M114" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115">
@@ -4461,7 +4482,7 @@
         <v>1147.0</v>
       </c>
       <c r="F115" s="32" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G115" s="32">
         <v>1.0</v>
@@ -4478,7 +4499,7 @@
       <c r="K115" s="33"/>
       <c r="L115" s="33"/>
       <c r="M115" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116">
@@ -4487,7 +4508,7 @@
         <v>1148.0</v>
       </c>
       <c r="F116" s="32" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G116" s="32">
         <v>1.0</v>
@@ -4504,7 +4525,7 @@
       <c r="K116" s="33"/>
       <c r="L116" s="33"/>
       <c r="M116" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117">
@@ -4530,7 +4551,7 @@
       <c r="K117" s="33"/>
       <c r="L117" s="33"/>
       <c r="M117" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118">
@@ -4556,7 +4577,7 @@
       <c r="K118" s="33"/>
       <c r="L118" s="33"/>
       <c r="M118" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
@@ -4565,7 +4586,7 @@
         <v>1151.0</v>
       </c>
       <c r="F119" s="32" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G119" s="32">
         <v>1.0</v>
@@ -4582,7 +4603,7 @@
       <c r="K119" s="33"/>
       <c r="L119" s="33"/>
       <c r="M119" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
@@ -4591,7 +4612,7 @@
         <v>1152.0</v>
       </c>
       <c r="F120" s="32" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G120" s="32">
         <v>1.0</v>
@@ -4608,7 +4629,7 @@
       <c r="K120" s="33"/>
       <c r="L120" s="33"/>
       <c r="M120" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121">
@@ -4634,7 +4655,7 @@
       <c r="K121" s="33"/>
       <c r="L121" s="33"/>
       <c r="M121" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122">
@@ -4643,7 +4664,7 @@
         <v>1154.0</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G122" s="35">
         <v>1.0</v>
@@ -4659,10 +4680,10 @@
       </c>
       <c r="K122" s="36"/>
       <c r="L122" s="35" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123">
@@ -4671,7 +4692,7 @@
         <v>1155.0</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G123" s="35">
         <v>1.0</v>
@@ -4687,10 +4708,10 @@
       </c>
       <c r="K123" s="36"/>
       <c r="L123" s="35" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M123" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124">
@@ -4698,7 +4719,7 @@
         <v>1156.0</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G124" s="35">
         <v>1.0</v>
@@ -4714,10 +4735,10 @@
       </c>
       <c r="K124" s="36"/>
       <c r="L124" s="35" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M124" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
@@ -4726,7 +4747,7 @@
         <v>1157.0</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G125" s="35">
         <v>3.0</v>
@@ -4742,10 +4763,10 @@
         <v>2.0</v>
       </c>
       <c r="L125" s="35" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M125" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126">
@@ -4754,7 +4775,7 @@
         <v>1158.0</v>
       </c>
       <c r="F126" s="35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G126" s="35">
         <v>1.0</v>
@@ -4770,10 +4791,10 @@
       </c>
       <c r="K126" s="36"/>
       <c r="L126" s="35" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127">
@@ -4782,7 +4803,7 @@
         <v>1159.0</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G127" s="35">
         <v>1.0</v>
@@ -4798,10 +4819,10 @@
       </c>
       <c r="K127" s="36"/>
       <c r="L127" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="M127" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="M127" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="128">
@@ -4810,7 +4831,7 @@
         <v>1160.0</v>
       </c>
       <c r="F128" s="35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G128" s="35">
         <v>1.0</v>
@@ -4826,10 +4847,10 @@
       </c>
       <c r="K128" s="36"/>
       <c r="L128" s="35" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M128" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129">
@@ -4838,7 +4859,7 @@
         <v>1161.0</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G129" s="35">
         <v>4.0</v>
@@ -4854,10 +4875,10 @@
       </c>
       <c r="K129" s="36"/>
       <c r="L129" s="35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M129" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130">
@@ -4866,10 +4887,10 @@
         <v>1162.0</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G130" s="35">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H130" s="35">
         <v>20.0</v>
@@ -4882,10 +4903,10 @@
       </c>
       <c r="K130" s="36"/>
       <c r="L130" s="35" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131">
@@ -4894,10 +4915,10 @@
         <v>1163.0</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G131" s="35">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H131" s="35">
         <v>40.0</v>
@@ -4910,10 +4931,10 @@
       </c>
       <c r="K131" s="36"/>
       <c r="L131" s="35" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M131" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132">
@@ -4922,10 +4943,10 @@
         <v>1164.0</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G132" s="35">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H132" s="35">
         <v>60.0</v>
@@ -4938,10 +4959,10 @@
       </c>
       <c r="K132" s="36"/>
       <c r="L132" s="35" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133">
@@ -4966,10 +4987,10 @@
       </c>
       <c r="K133" s="36"/>
       <c r="L133" s="35" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M133" s="37" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134">
@@ -4978,7 +4999,7 @@
         <v>1166.0</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G134" s="35">
         <v>1.0</v>
@@ -4994,10 +5015,10 @@
       </c>
       <c r="K134" s="36"/>
       <c r="L134" s="35" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M134" s="37" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135">
@@ -5022,17 +5043,67 @@
         <v>2.0</v>
       </c>
       <c r="L135" s="38" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M135" s="11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136">
       <c r="C136" s="10"/>
+      <c r="E136" s="11">
+        <v>1167.0</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G136" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H136" s="11">
+        <v>-10.0</v>
+      </c>
+      <c r="I136" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="137">
       <c r="C137" s="10"/>
+      <c r="E137" s="11">
+        <v>1168.0</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G137" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H137" s="11">
+        <v>-20.0</v>
+      </c>
+      <c r="I137" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="138">
       <c r="C138" s="10"/>
@@ -7550,7 +7621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="10"/>
@@ -7569,7 +7640,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="21" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -7589,7 +7660,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -7609,7 +7680,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="41" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
@@ -7629,7 +7700,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -7649,7 +7720,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
@@ -7669,7 +7740,7 @@
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
       <c r="J6" s="21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -7689,7 +7760,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
       <c r="J7" s="21" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -7709,7 +7780,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="41" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -7729,7 +7800,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -7749,7 +7820,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -7769,7 +7840,7 @@
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -7789,7 +7860,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="21" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -7809,7 +7880,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="41" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -7829,7 +7900,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -7849,7 +7920,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
@@ -7877,7 +7948,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -7897,7 +7968,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
@@ -7917,7 +7988,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -7927,7 +7998,7 @@
         <v>1083.0</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E21" s="42"/>
       <c r="F21" s="16">
@@ -7937,7 +8008,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -7957,7 +8028,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -7977,7 +8048,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -7997,7 +8068,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -8007,7 +8078,7 @@
         <v>1087.0</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="16">
@@ -8017,7 +8088,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -8037,7 +8108,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -8047,7 +8118,7 @@
         <v>1089.0</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="43">
@@ -8057,7 +8128,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28">
@@ -8077,7 +8148,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -8087,7 +8158,7 @@
         <v>1091.0</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="43">
@@ -8097,7 +8168,7 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
@@ -8117,7 +8188,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -8127,7 +8198,7 @@
         <v>1093.0</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="43">
@@ -8137,7 +8208,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -8147,7 +8218,7 @@
         <v>1094.0</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E32" s="42"/>
       <c r="F32" s="16">
@@ -8157,7 +8228,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -8167,7 +8238,7 @@
         <v>1095.0</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E33" s="42"/>
       <c r="F33" s="16">
@@ -8177,7 +8248,7 @@
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="31" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -8187,7 +8258,7 @@
         <v>1096.0</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E34" s="42"/>
       <c r="F34" s="43">
@@ -8197,7 +8268,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/CourseCardSystem/Skill/SkillConfig.xlsx
+++ b/CourseCardSystem/Skill/SkillConfig.xlsx
@@ -2693,7 +2693,7 @@
         <v>55.0</v>
       </c>
       <c r="I50" s="16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J50" s="16">
         <v>31.0</v>

--- a/CourseCardSystem/Skill/SkillConfig.xlsx
+++ b/CourseCardSystem/Skill/SkillConfig.xlsx
@@ -6,13 +6,18 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="other" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="Z_038ACB99_DAC8_4C60_A4AB_BA268D836788_.wvu.FilterData">Sheet1!$G$1:$G$978</definedName>
+  </definedNames>
   <calcPr/>
+  <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{038ACB99-DAC8-4C60-A4AB-BA268D836788}" name="Filter 1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="146">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -319,30 +324,36 @@
     <t>Spinner_power +12%（20）</t>
   </si>
   <si>
+    <t>jump ball power +4%</t>
+  </si>
+  <si>
+    <t>wxj</t>
+  </si>
+  <si>
+    <t>jump ball bounce +5%</t>
+  </si>
+  <si>
+    <t>jump ball power +2%</t>
+  </si>
+  <si>
     <t>jump ball power +5%</t>
   </si>
   <si>
-    <t>wxj</t>
-  </si>
-  <si>
-    <t>jump ball bounce +5%</t>
+    <t>earth_top_spin +10</t>
+  </si>
+  <si>
+    <t>moon_top_spin +10</t>
+  </si>
+  <si>
+    <t>skill_moon_reduce_wind</t>
+  </si>
+  <si>
+    <t>moon_wind -10%</t>
   </si>
   <si>
     <t>jump ball power +8%</t>
   </si>
   <si>
-    <t>earth_top_spin +10</t>
-  </si>
-  <si>
-    <t>moon_top_spin +10</t>
-  </si>
-  <si>
-    <t>skill_moon_reduce_wind</t>
-  </si>
-  <si>
-    <t>moon_wind -10%</t>
-  </si>
-  <si>
     <t>ZXD</t>
   </si>
   <si>
@@ -367,6 +378,9 @@
     <t>jump ball bounce +10%</t>
   </si>
   <si>
+    <t>zxd</t>
+  </si>
+  <si>
     <t>CSC</t>
   </si>
   <si>
@@ -431,6 +445,9 @@
   </si>
   <si>
     <t>skill_sniper_reduce_wind</t>
+  </si>
+  <si>
+    <t>skill_spinner_reduce_wind</t>
   </si>
   <si>
     <t>Moon wind resistance10%</t>
@@ -489,7 +506,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,20 +545,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -563,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -632,44 +637,42 @@
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -680,7 +683,6 @@
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1620,13 +1622,13 @@
         <v>1.0</v>
       </c>
       <c r="H16" s="11">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="I16" s="11">
         <v>0.0</v>
       </c>
-      <c r="K16" s="11">
-        <v>-1.0</v>
+      <c r="J16" s="11">
+        <v>19.0</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>41</v>
@@ -1654,13 +1656,13 @@
         <v>1.0</v>
       </c>
       <c r="H17" s="11">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="I17" s="11">
         <v>0.0</v>
       </c>
-      <c r="K17" s="11">
-        <v>-1.0</v>
+      <c r="J17" s="11">
+        <v>19.0</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>41</v>
@@ -1693,8 +1695,8 @@
       <c r="I18" s="11">
         <v>0.0</v>
       </c>
-      <c r="K18" s="11">
-        <v>-1.0</v>
+      <c r="J18" s="11">
+        <v>19.0</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>41</v>
@@ -1722,13 +1724,13 @@
         <v>1.0</v>
       </c>
       <c r="H19" s="11">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="I19" s="11">
         <v>0.0</v>
       </c>
-      <c r="K19" s="11">
-        <v>-1.0</v>
+      <c r="J19" s="11">
+        <v>19.0</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>41</v>
@@ -1756,13 +1758,13 @@
         <v>1.0</v>
       </c>
       <c r="H20" s="11">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="I20" s="11">
         <v>0.0</v>
       </c>
-      <c r="K20" s="11">
-        <v>-1.0</v>
+      <c r="J20" s="11">
+        <v>19.0</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>41</v>
@@ -1784,13 +1786,13 @@
         <v>1.0</v>
       </c>
       <c r="H21" s="11">
-        <v>48.0</v>
+        <v>44.0</v>
       </c>
       <c r="I21" s="11">
         <v>0.0</v>
       </c>
-      <c r="K21" s="11">
-        <v>-1.0</v>
+      <c r="J21" s="11">
+        <v>19.0</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>41</v>
@@ -1816,13 +1818,13 @@
         <v>1.0</v>
       </c>
       <c r="H22" s="11">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
       <c r="I22" s="11">
         <v>0.0</v>
       </c>
-      <c r="K22" s="11">
-        <v>-1.0</v>
+      <c r="J22" s="11">
+        <v>19.0</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>41</v>
@@ -2000,10 +2002,10 @@
         <v>4.0</v>
       </c>
       <c r="H27" s="11">
-        <v>-10.0</v>
+        <v>0.15</v>
       </c>
       <c r="I27" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J27" s="11">
         <v>19.0</v>
@@ -2037,10 +2039,10 @@
         <v>4.0</v>
       </c>
       <c r="H28" s="11">
-        <v>-20.0</v>
+        <v>0.3</v>
       </c>
       <c r="I28" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" s="11">
         <v>19.0</v>
@@ -2545,10 +2547,10 @@
         <v>4.0</v>
       </c>
       <c r="H45" s="16">
-        <v>-30.0</v>
+        <v>0.3</v>
       </c>
       <c r="I45" s="16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J45" s="16">
         <v>31.0</v>
@@ -2632,10 +2634,10 @@
         <v>4.0</v>
       </c>
       <c r="H48" s="16">
-        <v>-10.0</v>
+        <v>0.1</v>
       </c>
       <c r="I48" s="16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J48" s="16">
         <v>31.0</v>
@@ -3009,10 +3011,10 @@
         <v>4.0</v>
       </c>
       <c r="H61" s="20">
-        <v>-50.0</v>
+        <v>0.5</v>
       </c>
       <c r="I61" s="20">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J61" s="20">
         <v>50.0</v>
@@ -3122,7 +3124,7 @@
       <c r="G65" s="20">
         <v>1.0</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="20">
         <v>20.0</v>
       </c>
       <c r="I65" s="20">
@@ -3141,26 +3143,26 @@
     </row>
     <row r="66">
       <c r="D66" s="11"/>
-      <c r="E66" s="24">
+      <c r="E66" s="23">
         <v>1063.0</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="H66" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="I66" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="J66" s="25"/>
-      <c r="K66" s="26">
+      <c r="G66" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="I66" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="J66" s="24"/>
+      <c r="K66" s="25">
         <v>2.0</v>
       </c>
-      <c r="L66" s="27" t="s">
+      <c r="L66" s="26" t="s">
         <v>101</v>
       </c>
       <c r="M66" s="11" t="s">
@@ -3169,26 +3171,26 @@
     </row>
     <row r="67">
       <c r="D67" s="11"/>
-      <c r="E67" s="24">
+      <c r="E67" s="23">
         <v>1064.0</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="23">
         <v>3.0</v>
       </c>
-      <c r="H67" s="24">
+      <c r="H67" s="23">
         <v>5.0</v>
       </c>
-      <c r="I67" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26">
+      <c r="I67" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25">
         <v>2.0</v>
       </c>
-      <c r="L67" s="27" t="s">
+      <c r="L67" s="26" t="s">
         <v>103</v>
       </c>
       <c r="M67" s="11" t="s">
@@ -3197,26 +3199,26 @@
     </row>
     <row r="68">
       <c r="D68" s="11"/>
-      <c r="E68" s="24">
-        <v>1065.0</v>
-      </c>
-      <c r="F68" s="25" t="s">
+      <c r="E68" s="23">
+        <v>1201.0</v>
+      </c>
+      <c r="F68" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="H68" s="28">
-        <v>13.0</v>
-      </c>
-      <c r="I68" s="26">
+      <c r="G68" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="H68" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="I68" s="25">
         <v>0.0</v>
       </c>
       <c r="J68" s="25"/>
-      <c r="K68" s="26">
+      <c r="K68" s="25">
         <v>2.0</v>
       </c>
-      <c r="L68" s="29" t="s">
+      <c r="L68" s="26" t="s">
         <v>104</v>
       </c>
       <c r="M68" s="11" t="s">
@@ -3225,26 +3227,26 @@
     </row>
     <row r="69">
       <c r="D69" s="11"/>
-      <c r="E69" s="24">
-        <v>1066.0</v>
+      <c r="E69" s="23">
+        <v>1065.0</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="H69" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="I69" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="J69" s="24">
-        <v>31.0</v>
-      </c>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="H69" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="I69" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="24"/>
+      <c r="K69" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="L69" s="23" t="s">
         <v>105</v>
       </c>
       <c r="M69" s="11" t="s">
@@ -3253,26 +3255,26 @@
     </row>
     <row r="70">
       <c r="D70" s="11"/>
-      <c r="E70" s="24">
-        <v>1067.0</v>
-      </c>
-      <c r="F70" s="24" t="s">
+      <c r="E70" s="23">
+        <v>1066.0</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G70" s="24">
+      <c r="G70" s="23">
         <v>5.0</v>
       </c>
-      <c r="H70" s="24">
+      <c r="H70" s="23">
         <v>10.0</v>
       </c>
-      <c r="I70" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="J70" s="24">
-        <v>32.0</v>
-      </c>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24" t="s">
+      <c r="I70" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J70" s="23">
+        <v>31.0</v>
+      </c>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23" t="s">
         <v>106</v>
       </c>
       <c r="M70" s="11" t="s">
@@ -3281,27 +3283,27 @@
     </row>
     <row r="71">
       <c r="D71" s="11"/>
-      <c r="E71" s="24">
-        <v>1068.0</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G71" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="H71" s="28">
+      <c r="E71" s="23">
+        <v>1067.0</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="H71" s="23">
         <v>10.0</v>
       </c>
-      <c r="I71" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="L71" s="27" t="s">
-        <v>103</v>
+      <c r="I71" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J71" s="23">
+        <v>32.0</v>
+      </c>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="M71" s="11" t="s">
         <v>102</v>
@@ -3309,27 +3311,27 @@
     </row>
     <row r="72">
       <c r="D72" s="11"/>
-      <c r="E72" s="24">
-        <v>1069.0</v>
+      <c r="E72" s="23">
+        <v>1068.0</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="H72" s="28">
-        <v>18.0</v>
-      </c>
-      <c r="I72" s="26">
+        <v>66</v>
+      </c>
+      <c r="G72" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="H72" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="I72" s="25">
         <v>0.0</v>
       </c>
       <c r="J72" s="25"/>
-      <c r="K72" s="26">
+      <c r="K72" s="25">
         <v>2.0</v>
       </c>
-      <c r="L72" s="27" t="s">
-        <v>101</v>
+      <c r="L72" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="M72" s="11" t="s">
         <v>102</v>
@@ -3337,25 +3339,27 @@
     </row>
     <row r="73">
       <c r="D73" s="11"/>
-      <c r="E73" s="24">
-        <v>1070.0</v>
-      </c>
-      <c r="F73" s="25" t="s">
+      <c r="E73" s="23">
+        <v>1069.0</v>
+      </c>
+      <c r="F73" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="H73" s="28">
-        <v>26.0</v>
-      </c>
-      <c r="I73" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="29" t="s">
-        <v>104</v>
+      <c r="G73" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="H73" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="I73" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="J73" s="24"/>
+      <c r="K73" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="L73" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="M73" s="11" t="s">
         <v>102</v>
@@ -3363,26 +3367,26 @@
     </row>
     <row r="74">
       <c r="D74" s="11"/>
-      <c r="E74" s="24">
-        <v>1071.0</v>
+      <c r="E74" s="23">
+        <v>1070.0</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G74" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="H74" s="28">
-        <v>20.0</v>
-      </c>
-      <c r="I74" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="J74" s="24">
-        <v>31.0</v>
-      </c>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="H74" s="23">
+        <v>19.0</v>
+      </c>
+      <c r="I74" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="J74" s="24"/>
+      <c r="K74" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="L74" s="23" t="s">
         <v>105</v>
       </c>
       <c r="M74" s="11" t="s">
@@ -3391,26 +3395,26 @@
     </row>
     <row r="75">
       <c r="D75" s="11"/>
-      <c r="E75" s="24">
-        <v>1072.0</v>
-      </c>
-      <c r="F75" s="24" t="s">
+      <c r="E75" s="23">
+        <v>1071.0</v>
+      </c>
+      <c r="F75" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G75" s="24">
+      <c r="G75" s="23">
         <v>5.0</v>
       </c>
-      <c r="H75" s="28">
+      <c r="H75" s="23">
         <v>20.0</v>
       </c>
-      <c r="I75" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="J75" s="24">
-        <v>32.0</v>
-      </c>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24" t="s">
+      <c r="I75" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J75" s="23">
+        <v>31.0</v>
+      </c>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23" t="s">
         <v>106</v>
       </c>
       <c r="M75" s="11" t="s">
@@ -3419,27 +3423,27 @@
     </row>
     <row r="76">
       <c r="D76" s="11"/>
-      <c r="E76" s="24">
-        <v>1073.0</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G76" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="H76" s="28">
-        <v>15.0</v>
-      </c>
-      <c r="I76" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="L76" s="27" t="s">
-        <v>103</v>
+      <c r="E76" s="23">
+        <v>1072.0</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G76" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="H76" s="23">
+        <v>20.0</v>
+      </c>
+      <c r="I76" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J76" s="23">
+        <v>32.0</v>
+      </c>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="M76" s="11" t="s">
         <v>102</v>
@@ -3447,27 +3451,27 @@
     </row>
     <row r="77">
       <c r="D77" s="11"/>
-      <c r="E77" s="24">
-        <v>1074.0</v>
+      <c r="E77" s="23">
+        <v>1073.0</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="H77" s="28">
-        <v>31.0</v>
-      </c>
-      <c r="I77" s="26">
+        <v>66</v>
+      </c>
+      <c r="G77" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="H77" s="23">
+        <v>15.0</v>
+      </c>
+      <c r="I77" s="25">
         <v>0.0</v>
       </c>
       <c r="J77" s="25"/>
-      <c r="K77" s="26">
+      <c r="K77" s="25">
         <v>2.0</v>
       </c>
-      <c r="L77" s="27" t="s">
-        <v>101</v>
+      <c r="L77" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="M77" s="11" t="s">
         <v>102</v>
@@ -3475,27 +3479,27 @@
     </row>
     <row r="78">
       <c r="D78" s="11"/>
-      <c r="E78" s="24">
-        <v>1075.0</v>
-      </c>
-      <c r="F78" s="25" t="s">
+      <c r="E78" s="23">
+        <v>1074.0</v>
+      </c>
+      <c r="F78" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="H78" s="28">
-        <v>39.0</v>
-      </c>
-      <c r="I78" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="J78" s="25"/>
-      <c r="K78" s="26">
+      <c r="G78" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="H78" s="23">
+        <v>23.0</v>
+      </c>
+      <c r="I78" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="24"/>
+      <c r="K78" s="25">
         <v>2.0</v>
       </c>
-      <c r="L78" s="29" t="s">
-        <v>104</v>
+      <c r="L78" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="M78" s="11" t="s">
         <v>102</v>
@@ -3503,26 +3507,26 @@
     </row>
     <row r="79">
       <c r="D79" s="11"/>
-      <c r="E79" s="24">
-        <v>1076.0</v>
+      <c r="E79" s="23">
+        <v>1075.0</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G79" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="H79" s="28">
-        <v>30.0</v>
-      </c>
-      <c r="I79" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="J79" s="24">
-        <v>31.0</v>
-      </c>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="H79" s="23">
+        <v>28.0</v>
+      </c>
+      <c r="I79" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="24"/>
+      <c r="K79" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="L79" s="23" t="s">
         <v>105</v>
       </c>
       <c r="M79" s="11" t="s">
@@ -3531,230 +3535,227 @@
     </row>
     <row r="80">
       <c r="D80" s="11"/>
-      <c r="E80" s="24">
-        <v>1077.0</v>
+      <c r="E80" s="23">
+        <v>1202.0</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G80" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="H80" s="28">
-        <v>30.0</v>
-      </c>
-      <c r="I80" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="J80" s="24">
-        <v>32.0</v>
-      </c>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24" t="s">
-        <v>106</v>
+        <v>11</v>
+      </c>
+      <c r="G80" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="H80" s="23">
+        <v>31.0</v>
+      </c>
+      <c r="I80" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="24"/>
+      <c r="K80" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="L80" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="M80" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" s="24">
-        <v>1078.0</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="H81" s="28">
-        <v>-20.0</v>
-      </c>
-      <c r="I81" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="J81" s="24">
+      <c r="D81" s="11"/>
+      <c r="E81" s="23">
+        <v>1076.0</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G81" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="H81" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="I81" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J81" s="23">
         <v>31.0</v>
       </c>
-      <c r="K81" s="30"/>
-      <c r="L81" s="24" t="s">
-        <v>85</v>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="M81" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" s="24">
-        <v>1079.0</v>
-      </c>
-      <c r="F82" s="24" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="23">
+        <v>1077.0</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="H82" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="I82" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J82" s="23">
+        <v>32.0</v>
+      </c>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23" t="s">
         <v>107</v>
-      </c>
-      <c r="G82" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="H82" s="28">
-        <v>-20.0</v>
-      </c>
-      <c r="I82" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="J82" s="24">
-        <v>32.0</v>
-      </c>
-      <c r="K82" s="30"/>
-      <c r="L82" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="M82" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="83">
-      <c r="D83" s="11"/>
-      <c r="E83" s="16">
-        <v>1080.0</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="H83" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="I83" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16">
+      <c r="E83" s="23">
+        <v>1078.0</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G83" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="H83" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="I83" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J83" s="23">
+        <v>31.0</v>
+      </c>
+      <c r="K83" s="27"/>
+      <c r="L83" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" s="23">
+        <v>1079.0</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="H84" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="I84" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J84" s="23">
+        <v>32.0</v>
+      </c>
+      <c r="K84" s="27"/>
+      <c r="L84" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" s="23">
+        <v>1203.0</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" s="23">
         <v>2.0</v>
       </c>
-      <c r="L83" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M83" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" s="11"/>
-      <c r="E84" s="16">
-        <v>1081.0</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="H84" s="16">
-        <v>16.0</v>
-      </c>
-      <c r="I84" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16">
+      <c r="H85" s="23">
+        <v>-10.0</v>
+      </c>
+      <c r="I85" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="K85" s="28"/>
+      <c r="L85" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" s="23">
+        <v>1204.0</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="23">
         <v>2.0</v>
       </c>
-      <c r="L84" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M84" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="D85" s="11"/>
-      <c r="E85" s="16">
-        <v>1082.0</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="H85" s="16">
-        <v>24.0</v>
-      </c>
-      <c r="I85" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16">
+      <c r="H86" s="23">
+        <v>-20.0</v>
+      </c>
+      <c r="I86" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="K86" s="28"/>
+      <c r="L86" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" s="23">
+        <v>1205.0</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" s="23">
         <v>2.0</v>
       </c>
-      <c r="L85" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M85" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="D86" s="11"/>
-      <c r="E86" s="16">
-        <v>1083.0</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G86" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="H86" s="16">
-        <v>20.0</v>
-      </c>
-      <c r="I86" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="J86" s="16">
-        <v>55.0</v>
-      </c>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="M86" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="D87" s="11"/>
-      <c r="E87" s="16">
-        <v>1084.0</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="H87" s="16">
-        <v>29.0</v>
-      </c>
-      <c r="I87" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="L87" s="16" t="s">
-        <v>101</v>
+      <c r="H87" s="23">
+        <v>-30.0</v>
+      </c>
+      <c r="I87" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="K87" s="28"/>
+      <c r="L87" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="D88" s="11"/>
       <c r="E88" s="16">
-        <v>1085.0</v>
+        <v>1080.0</v>
       </c>
       <c r="F88" s="16" t="s">
         <v>11</v>
@@ -3763,7 +3764,7 @@
         <v>1.0</v>
       </c>
       <c r="H88" s="16">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="I88" s="16">
         <v>0.0</v>
@@ -3773,16 +3774,16 @@
         <v>2.0</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89">
       <c r="D89" s="11"/>
       <c r="E89" s="16">
-        <v>1086.0</v>
+        <v>1081.0</v>
       </c>
       <c r="F89" s="16" t="s">
         <v>11</v>
@@ -3791,7 +3792,7 @@
         <v>1.0</v>
       </c>
       <c r="H89" s="16">
-        <v>39.0</v>
+        <v>16.0</v>
       </c>
       <c r="I89" s="16">
         <v>0.0</v>
@@ -3801,100 +3802,100 @@
         <v>2.0</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90">
       <c r="D90" s="11"/>
       <c r="E90" s="16">
-        <v>1087.0</v>
+        <v>1082.0</v>
       </c>
       <c r="F90" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H90" s="16">
+        <v>24.0</v>
+      </c>
+      <c r="I90" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="L90" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G90" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="H90" s="16">
-        <v>35.0</v>
-      </c>
-      <c r="I90" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="J90" s="16">
-        <v>55.0</v>
-      </c>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="M90" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91">
       <c r="D91" s="11"/>
       <c r="E91" s="16">
-        <v>1088.0</v>
+        <v>1083.0</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="G91" s="16">
         <v>1.0</v>
       </c>
       <c r="H91" s="16">
-        <v>44.0</v>
+        <v>20.0</v>
       </c>
       <c r="I91" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="J91" s="16">
+        <v>55.0</v>
+      </c>
+      <c r="K91" s="16"/>
       <c r="L91" s="16" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="D92" s="11"/>
       <c r="E92" s="16">
-        <v>1089.0</v>
+        <v>1084.0</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="G92" s="16">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H92" s="16">
-        <v>-10.0</v>
+        <v>29.0</v>
       </c>
       <c r="I92" s="16">
         <v>0.0</v>
       </c>
-      <c r="J92" s="16">
-        <v>32.0</v>
-      </c>
-      <c r="K92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16">
+        <v>2.0</v>
+      </c>
       <c r="L92" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93">
       <c r="D93" s="11"/>
       <c r="E93" s="16">
-        <v>1090.0</v>
+        <v>1085.0</v>
       </c>
       <c r="F93" s="16" t="s">
         <v>11</v>
@@ -3903,7 +3904,7 @@
         <v>1.0</v>
       </c>
       <c r="H93" s="16">
-        <v>49.0</v>
+        <v>34.0</v>
       </c>
       <c r="I93" s="16">
         <v>0.0</v>
@@ -3913,1227 +3914,1480 @@
         <v>2.0</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94">
       <c r="D94" s="11"/>
       <c r="E94" s="16">
-        <v>1091.0</v>
+        <v>1086.0</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="G94" s="16">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H94" s="16">
-        <v>-20.0</v>
+        <v>39.0</v>
       </c>
       <c r="I94" s="16">
         <v>0.0</v>
       </c>
-      <c r="J94" s="16">
-        <v>32.0</v>
-      </c>
-      <c r="K94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16">
+        <v>2.0</v>
+      </c>
       <c r="L94" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95">
       <c r="D95" s="11"/>
       <c r="E95" s="16">
-        <v>1092.0</v>
+        <v>1087.0</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="G95" s="16">
         <v>1.0</v>
       </c>
       <c r="H95" s="16">
-        <v>54.0</v>
+        <v>35.0</v>
       </c>
       <c r="I95" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="J95" s="16">
+        <v>55.0</v>
+      </c>
+      <c r="K95" s="16"/>
       <c r="L95" s="16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96">
       <c r="D96" s="11"/>
       <c r="E96" s="16">
-        <v>1093.0</v>
+        <v>1088.0</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="G96" s="16">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H96" s="16">
-        <v>-40.0</v>
+        <v>44.0</v>
       </c>
       <c r="I96" s="16">
         <v>0.0</v>
       </c>
-      <c r="J96" s="16">
-        <v>32.0</v>
-      </c>
-      <c r="K96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16">
+        <v>2.0</v>
+      </c>
       <c r="L96" s="16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97">
       <c r="D97" s="11"/>
       <c r="E97" s="16">
-        <v>1094.0</v>
+        <v>1089.0</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G97" s="16">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H97" s="16">
-        <v>55.0</v>
+        <v>0.1</v>
       </c>
       <c r="I97" s="16">
         <v>1.0</v>
       </c>
       <c r="J97" s="16">
-        <v>55.0</v>
+        <v>32.0</v>
       </c>
       <c r="K97" s="16"/>
       <c r="L97" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M97" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="M97" s="11" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="98">
       <c r="D98" s="11"/>
       <c r="E98" s="16">
-        <v>1095.0</v>
+        <v>1090.0</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="G98" s="16">
         <v>1.0</v>
       </c>
       <c r="H98" s="16">
-        <v>20.0</v>
+        <v>49.0</v>
       </c>
       <c r="I98" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="J98" s="16">
-        <v>32.0</v>
-      </c>
-      <c r="K98" s="16"/>
-      <c r="L98" s="31" t="s">
-        <v>115</v>
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="L98" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99">
-      <c r="C99" s="10"/>
       <c r="D99" s="11"/>
       <c r="E99" s="16">
-        <v>1096.0</v>
+        <v>1091.0</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="G99" s="16">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H99" s="16">
-        <v>10.0</v>
+        <v>0.2</v>
       </c>
       <c r="I99" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J99" s="16">
+        <v>32.0</v>
+      </c>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="D100" s="11"/>
+      <c r="E100" s="16">
+        <v>1092.0</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H100" s="16">
+        <v>54.0</v>
+      </c>
+      <c r="I100" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16">
         <v>2.0</v>
       </c>
-      <c r="L99" s="16" t="s">
+      <c r="L100" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" s="11"/>
+      <c r="E101" s="16">
+        <v>1093.0</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="H101" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="I101" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J101" s="16">
+        <v>32.0</v>
+      </c>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" s="11"/>
+      <c r="E102" s="16">
+        <v>1094.0</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G102" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H102" s="16">
+        <v>55.0</v>
+      </c>
+      <c r="I102" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J102" s="16">
+        <v>55.0</v>
+      </c>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" s="11"/>
+      <c r="E103" s="16">
+        <v>1095.0</v>
+      </c>
+      <c r="F103" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="M99" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="C100" s="10"/>
-      <c r="E100" s="32">
-        <v>1132.0</v>
-      </c>
-      <c r="F100" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H100" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="I100" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J100" s="33"/>
-      <c r="K100" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="L100" s="33"/>
-      <c r="M100" s="11" t="s">
+      <c r="G103" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="H103" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="I103" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J103" s="16">
+        <v>32.0</v>
+      </c>
+      <c r="K103" s="16"/>
+      <c r="L103" s="29" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="C101" s="10"/>
-      <c r="E101" s="32">
-        <v>1133.0</v>
-      </c>
-      <c r="F101" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H101" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="I101" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J101" s="33"/>
-      <c r="K101" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="L101" s="33"/>
-      <c r="M101" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="C102" s="10"/>
-      <c r="E102" s="32">
-        <v>1134.0</v>
-      </c>
-      <c r="F102" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H102" s="32">
-        <v>11.0</v>
-      </c>
-      <c r="I102" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J102" s="33"/>
-      <c r="K102" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="L102" s="33"/>
-      <c r="M102" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="C103" s="10"/>
-      <c r="E103" s="32">
-        <v>1135.0</v>
-      </c>
-      <c r="F103" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H103" s="32">
-        <v>14.0</v>
-      </c>
-      <c r="I103" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J103" s="33"/>
-      <c r="K103" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="L103" s="33"/>
       <c r="M103" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104">
       <c r="C104" s="10"/>
-      <c r="E104" s="32">
-        <v>1136.0</v>
-      </c>
-      <c r="F104" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H104" s="32">
-        <v>17.0</v>
-      </c>
-      <c r="I104" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J104" s="33"/>
-      <c r="K104" s="32">
+      <c r="D104" s="11"/>
+      <c r="E104" s="16">
+        <v>1096.0</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G104" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="H104" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="I104" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16">
         <v>2.0</v>
       </c>
-      <c r="L104" s="33"/>
+      <c r="L104" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="M104" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105">
       <c r="C105" s="10"/>
-      <c r="E105" s="32">
-        <v>1137.0</v>
-      </c>
-      <c r="F105" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H105" s="32">
-        <v>20.0</v>
-      </c>
-      <c r="I105" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J105" s="33"/>
-      <c r="K105" s="32">
+      <c r="D105" s="11"/>
+      <c r="E105" s="16">
+        <v>1210.0</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" s="16">
         <v>2.0</v>
       </c>
-      <c r="L105" s="33"/>
-      <c r="M105" s="11" t="s">
-        <v>117</v>
+      <c r="H105" s="16">
+        <v>-10.0</v>
+      </c>
+      <c r="I105" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K105" s="30"/>
+      <c r="L105" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M105" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="C106" s="10"/>
-      <c r="E106" s="32">
-        <v>1138.0</v>
-      </c>
-      <c r="F106" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H106" s="32">
-        <v>23.0</v>
-      </c>
-      <c r="I106" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J106" s="33"/>
-      <c r="K106" s="32">
+      <c r="D106" s="11"/>
+      <c r="E106" s="16">
+        <v>1211.0</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" s="16">
         <v>2.0</v>
       </c>
-      <c r="L106" s="33"/>
-      <c r="M106" s="11" t="s">
-        <v>117</v>
+      <c r="H106" s="16">
+        <v>-20.0</v>
+      </c>
+      <c r="I106" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K106" s="30"/>
+      <c r="L106" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M106" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="C107" s="10"/>
-      <c r="E107" s="32">
-        <v>1139.0</v>
-      </c>
-      <c r="F107" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H107" s="32">
-        <v>26.0</v>
-      </c>
-      <c r="I107" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J107" s="33"/>
-      <c r="K107" s="32">
+      <c r="D107" s="11"/>
+      <c r="E107" s="16">
+        <v>1212.0</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" s="16">
         <v>2.0</v>
       </c>
-      <c r="L107" s="33"/>
-      <c r="M107" s="11" t="s">
-        <v>117</v>
+      <c r="H107" s="16">
+        <v>-30.0</v>
+      </c>
+      <c r="I107" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K107" s="30"/>
+      <c r="L107" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M107" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="C108" s="10"/>
-      <c r="E108" s="32">
-        <v>1140.0</v>
-      </c>
-      <c r="F108" s="32" t="s">
+      <c r="E108" s="31">
+        <v>1132.0</v>
+      </c>
+      <c r="F108" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H108" s="32">
-        <v>29.0</v>
-      </c>
-      <c r="I108" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J108" s="33"/>
-      <c r="K108" s="32">
+      <c r="G108" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H108" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="I108" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="32"/>
+      <c r="K108" s="31">
         <v>2.0</v>
       </c>
-      <c r="L108" s="33"/>
+      <c r="L108" s="32"/>
       <c r="M108" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="C109" s="10"/>
-      <c r="E109" s="32">
-        <v>1141.0</v>
-      </c>
-      <c r="F109" s="32" t="s">
+      <c r="E109" s="31">
+        <v>1133.0</v>
+      </c>
+      <c r="F109" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G109" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H109" s="32">
-        <v>32.0</v>
-      </c>
-      <c r="I109" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J109" s="33"/>
-      <c r="K109" s="32">
+      <c r="G109" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H109" s="31">
+        <v>8.0</v>
+      </c>
+      <c r="I109" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="32"/>
+      <c r="K109" s="31">
         <v>2.0</v>
       </c>
-      <c r="L109" s="33"/>
+      <c r="L109" s="32"/>
       <c r="M109" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110">
       <c r="C110" s="10"/>
-      <c r="E110" s="32">
-        <v>1142.0</v>
-      </c>
-      <c r="F110" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G110" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="H110" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="I110" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J110" s="33"/>
-      <c r="K110" s="33"/>
-      <c r="L110" s="33"/>
+      <c r="E110" s="31">
+        <v>1134.0</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H110" s="31">
+        <v>11.0</v>
+      </c>
+      <c r="I110" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="32"/>
+      <c r="K110" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="L110" s="32"/>
       <c r="M110" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111">
       <c r="C111" s="10"/>
-      <c r="E111" s="32">
-        <v>1143.0</v>
-      </c>
-      <c r="F111" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G111" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H111" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="I111" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J111" s="32">
-        <v>63.0</v>
-      </c>
-      <c r="K111" s="33"/>
-      <c r="L111" s="33"/>
+      <c r="E111" s="31">
+        <v>1135.0</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H111" s="31">
+        <v>14.0</v>
+      </c>
+      <c r="I111" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="32"/>
+      <c r="K111" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="L111" s="32"/>
       <c r="M111" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112">
       <c r="C112" s="10"/>
-      <c r="E112" s="32">
-        <v>1144.0</v>
-      </c>
-      <c r="F112" s="32" t="s">
+      <c r="E112" s="31">
+        <v>1136.0</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H112" s="31">
+        <v>17.0</v>
+      </c>
+      <c r="I112" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="32"/>
+      <c r="K112" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="L112" s="32"/>
+      <c r="M112" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="G112" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H112" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="I112" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J112" s="32">
-        <v>37.0</v>
-      </c>
-      <c r="K112" s="33"/>
-      <c r="L112" s="33"/>
-      <c r="M112" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="113">
       <c r="C113" s="10"/>
-      <c r="E113" s="32">
-        <v>1145.0</v>
-      </c>
-      <c r="F113" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G113" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="H113" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="I113" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J113" s="32">
-        <v>63.0</v>
-      </c>
-      <c r="K113" s="33"/>
-      <c r="L113" s="33"/>
+      <c r="E113" s="31">
+        <v>1137.0</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H113" s="31">
+        <v>20.0</v>
+      </c>
+      <c r="I113" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="32"/>
+      <c r="K113" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="L113" s="32"/>
       <c r="M113" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114">
       <c r="C114" s="10"/>
-      <c r="E114" s="32">
-        <v>1146.0</v>
-      </c>
-      <c r="F114" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G114" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="H114" s="32">
-        <v>20.0</v>
-      </c>
-      <c r="I114" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J114" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="K114" s="33"/>
-      <c r="L114" s="33"/>
+      <c r="E114" s="31">
+        <v>1138.0</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H114" s="31">
+        <v>23.0</v>
+      </c>
+      <c r="I114" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="32"/>
+      <c r="K114" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="L114" s="32"/>
       <c r="M114" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115">
       <c r="C115" s="10"/>
-      <c r="E115" s="32">
-        <v>1147.0</v>
-      </c>
-      <c r="F115" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G115" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H115" s="32">
-        <v>20.0</v>
-      </c>
-      <c r="I115" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J115" s="32">
-        <v>63.0</v>
-      </c>
-      <c r="K115" s="33"/>
-      <c r="L115" s="33"/>
+      <c r="E115" s="31">
+        <v>1139.0</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H115" s="31">
+        <v>26.0</v>
+      </c>
+      <c r="I115" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="32"/>
+      <c r="K115" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="L115" s="32"/>
       <c r="M115" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116">
       <c r="C116" s="10"/>
-      <c r="E116" s="32">
-        <v>1148.0</v>
-      </c>
-      <c r="F116" s="32" t="s">
+      <c r="E116" s="31">
+        <v>1140.0</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H116" s="31">
+        <v>29.0</v>
+      </c>
+      <c r="I116" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="32"/>
+      <c r="K116" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="L116" s="32"/>
+      <c r="M116" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="G116" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H116" s="32">
-        <v>20.0</v>
-      </c>
-      <c r="I116" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J116" s="32">
-        <v>37.0</v>
-      </c>
-      <c r="K116" s="33"/>
-      <c r="L116" s="33"/>
-      <c r="M116" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="117">
       <c r="C117" s="10"/>
-      <c r="E117" s="32">
-        <v>1149.0</v>
-      </c>
-      <c r="F117" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G117" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="H117" s="32">
-        <v>20.0</v>
-      </c>
-      <c r="I117" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J117" s="32">
-        <v>63.0</v>
-      </c>
-      <c r="K117" s="33"/>
-      <c r="L117" s="33"/>
+      <c r="E117" s="31">
+        <v>1141.0</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H117" s="31">
+        <v>32.0</v>
+      </c>
+      <c r="I117" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="32"/>
+      <c r="K117" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="L117" s="32"/>
       <c r="M117" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
       <c r="C118" s="10"/>
-      <c r="E118" s="32">
-        <v>1150.0</v>
-      </c>
-      <c r="F118" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G118" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="H118" s="32">
-        <v>30.0</v>
-      </c>
-      <c r="I118" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="J118" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="K118" s="33"/>
-      <c r="L118" s="33"/>
+      <c r="E118" s="31">
+        <v>1142.0</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G118" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="H118" s="31">
+        <v>10.0</v>
+      </c>
+      <c r="I118" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
       <c r="M118" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="C119" s="10"/>
-      <c r="E119" s="32">
-        <v>1151.0</v>
-      </c>
-      <c r="F119" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G119" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H119" s="32">
-        <v>30.0</v>
-      </c>
-      <c r="I119" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J119" s="32">
+      <c r="E119" s="31">
+        <v>1143.0</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G119" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H119" s="31">
+        <v>10.0</v>
+      </c>
+      <c r="I119" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J119" s="31">
         <v>63.0</v>
       </c>
-      <c r="K119" s="33"/>
-      <c r="L119" s="33"/>
+      <c r="K119" s="32"/>
+      <c r="L119" s="32"/>
       <c r="M119" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
       <c r="C120" s="10"/>
-      <c r="E120" s="32">
-        <v>1152.0</v>
-      </c>
-      <c r="F120" s="32" t="s">
+      <c r="E120" s="31">
+        <v>1144.0</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G120" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H120" s="31">
+        <v>10.0</v>
+      </c>
+      <c r="I120" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J120" s="31">
+        <v>37.0</v>
+      </c>
+      <c r="K120" s="32"/>
+      <c r="L120" s="32"/>
+      <c r="M120" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="G120" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="H120" s="32">
-        <v>30.0</v>
-      </c>
-      <c r="I120" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J120" s="32">
-        <v>37.0</v>
-      </c>
-      <c r="K120" s="33"/>
-      <c r="L120" s="33"/>
-      <c r="M120" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="121">
       <c r="C121" s="10"/>
-      <c r="E121" s="32">
-        <v>1153.0</v>
-      </c>
-      <c r="F121" s="32" t="s">
+      <c r="E121" s="31">
+        <v>1145.0</v>
+      </c>
+      <c r="F121" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G121" s="32">
+      <c r="G121" s="31">
         <v>5.0</v>
       </c>
-      <c r="H121" s="32">
-        <v>30.0</v>
-      </c>
-      <c r="I121" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="J121" s="32">
+      <c r="H121" s="31">
+        <v>10.0</v>
+      </c>
+      <c r="I121" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J121" s="31">
         <v>63.0</v>
       </c>
-      <c r="K121" s="33"/>
-      <c r="L121" s="33"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
       <c r="M121" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="C122" s="10"/>
-      <c r="E122" s="35">
-        <v>1154.0</v>
-      </c>
-      <c r="F122" s="35" t="s">
+      <c r="E122" s="31">
+        <v>1146.0</v>
+      </c>
+      <c r="F122" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="G122" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="H122" s="35">
-        <v>5.0</v>
-      </c>
-      <c r="I122" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J122" s="35">
-        <v>13.0</v>
-      </c>
-      <c r="K122" s="36"/>
-      <c r="L122" s="35" t="s">
-        <v>122</v>
-      </c>
+      <c r="G122" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="H122" s="31">
+        <v>20.0</v>
+      </c>
+      <c r="I122" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J122" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
       <c r="M122" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="C123" s="10"/>
-      <c r="E123" s="35">
-        <v>1155.0</v>
-      </c>
-      <c r="F123" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G123" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="H123" s="35">
-        <v>10.0</v>
-      </c>
-      <c r="I123" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J123" s="35">
-        <v>13.0</v>
-      </c>
-      <c r="K123" s="36"/>
-      <c r="L123" s="35" t="s">
-        <v>124</v>
-      </c>
+      <c r="E123" s="31">
+        <v>1147.0</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G123" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H123" s="31">
+        <v>20.0</v>
+      </c>
+      <c r="I123" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J123" s="31">
+        <v>63.0</v>
+      </c>
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
       <c r="M123" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" s="10"/>
+      <c r="E124" s="31">
+        <v>1148.0</v>
+      </c>
+      <c r="F124" s="31" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="E124" s="35">
-        <v>1156.0</v>
-      </c>
-      <c r="F124" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G124" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="H124" s="35">
-        <v>15.0</v>
-      </c>
-      <c r="I124" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J124" s="35">
-        <v>13.0</v>
-      </c>
-      <c r="K124" s="36"/>
-      <c r="L124" s="35" t="s">
-        <v>125</v>
-      </c>
+      <c r="G124" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H124" s="31">
+        <v>20.0</v>
+      </c>
+      <c r="I124" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J124" s="31">
+        <v>37.0</v>
+      </c>
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
       <c r="M124" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125">
       <c r="C125" s="10"/>
-      <c r="E125" s="35">
-        <v>1157.0</v>
-      </c>
-      <c r="F125" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G125" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="H125" s="35">
+      <c r="E125" s="31">
+        <v>1149.0</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G125" s="31">
         <v>5.0</v>
       </c>
-      <c r="I125" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J125" s="36"/>
-      <c r="K125" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="L125" s="35" t="s">
-        <v>127</v>
-      </c>
+      <c r="H125" s="31">
+        <v>20.0</v>
+      </c>
+      <c r="I125" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J125" s="31">
+        <v>63.0</v>
+      </c>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
       <c r="M125" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="C126" s="10"/>
-      <c r="E126" s="35">
-        <v>1158.0</v>
-      </c>
-      <c r="F126" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G126" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="H126" s="35">
-        <v>23.0</v>
-      </c>
-      <c r="I126" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J126" s="35">
-        <v>13.0</v>
-      </c>
-      <c r="K126" s="36"/>
-      <c r="L126" s="35" t="s">
-        <v>128</v>
-      </c>
+      <c r="E126" s="31">
+        <v>1150.0</v>
+      </c>
+      <c r="F126" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="H126" s="31">
+        <v>30.0</v>
+      </c>
+      <c r="I126" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
       <c r="M126" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127">
       <c r="C127" s="10"/>
-      <c r="E127" s="35">
-        <v>1159.0</v>
-      </c>
-      <c r="F127" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G127" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="H127" s="35">
-        <v>31.0</v>
-      </c>
-      <c r="I127" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J127" s="35">
-        <v>13.0</v>
-      </c>
-      <c r="K127" s="36"/>
-      <c r="L127" s="35" t="s">
-        <v>129</v>
-      </c>
+      <c r="E127" s="31">
+        <v>1151.0</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G127" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H127" s="31">
+        <v>30.0</v>
+      </c>
+      <c r="I127" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J127" s="31">
+        <v>63.0</v>
+      </c>
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
       <c r="M127" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="C128" s="10"/>
-      <c r="E128" s="35">
-        <v>1160.0</v>
-      </c>
-      <c r="F128" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G128" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="H128" s="35">
-        <v>39.0</v>
-      </c>
-      <c r="I128" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J128" s="35">
-        <v>13.0</v>
-      </c>
-      <c r="K128" s="36"/>
-      <c r="L128" s="35" t="s">
-        <v>130</v>
-      </c>
+      <c r="E128" s="31">
+        <v>1152.0</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G128" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="H128" s="31">
+        <v>30.0</v>
+      </c>
+      <c r="I128" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J128" s="31">
+        <v>37.0</v>
+      </c>
+      <c r="K128" s="32"/>
+      <c r="L128" s="32"/>
       <c r="M128" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129">
       <c r="C129" s="10"/>
-      <c r="E129" s="35">
-        <v>1161.0</v>
-      </c>
-      <c r="F129" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="G129" s="35">
-        <v>4.0</v>
-      </c>
-      <c r="H129" s="35">
-        <v>-20.0</v>
-      </c>
-      <c r="I129" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J129" s="35">
-        <v>13.0</v>
-      </c>
-      <c r="K129" s="36"/>
-      <c r="L129" s="35" t="s">
-        <v>132</v>
-      </c>
+      <c r="E129" s="31">
+        <v>1153.0</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G129" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="H129" s="31">
+        <v>30.0</v>
+      </c>
+      <c r="I129" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="J129" s="31">
+        <v>63.0</v>
+      </c>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
       <c r="M129" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130">
       <c r="C130" s="10"/>
-      <c r="E130" s="35">
-        <v>1162.0</v>
-      </c>
-      <c r="F130" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G130" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="H130" s="35">
-        <v>20.0</v>
-      </c>
-      <c r="I130" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="J130" s="35">
+      <c r="E130" s="34">
+        <v>1154.0</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G130" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="H130" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="I130" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="34">
         <v>13.0</v>
       </c>
-      <c r="K130" s="36"/>
-      <c r="L130" s="35" t="s">
-        <v>134</v>
+      <c r="K130" s="35"/>
+      <c r="L130" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="C131" s="10"/>
-      <c r="E131" s="35">
-        <v>1163.0</v>
-      </c>
-      <c r="F131" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G131" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="H131" s="35">
-        <v>40.0</v>
-      </c>
-      <c r="I131" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="J131" s="35">
+      <c r="E131" s="34">
+        <v>1155.0</v>
+      </c>
+      <c r="F131" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G131" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="H131" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="I131" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="34">
         <v>13.0</v>
       </c>
-      <c r="K131" s="36"/>
-      <c r="L131" s="35" t="s">
-        <v>134</v>
+      <c r="K131" s="35"/>
+      <c r="L131" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="M131" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
-      <c r="C132" s="10"/>
-      <c r="E132" s="35">
-        <v>1164.0</v>
-      </c>
-      <c r="F132" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="G132" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="H132" s="35">
-        <v>60.0</v>
-      </c>
-      <c r="I132" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="J132" s="35">
+      <c r="E132" s="34">
+        <v>1156.0</v>
+      </c>
+      <c r="F132" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G132" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="H132" s="34">
+        <v>15.0</v>
+      </c>
+      <c r="I132" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="34">
         <v>13.0</v>
       </c>
-      <c r="K132" s="36"/>
-      <c r="L132" s="35" t="s">
-        <v>134</v>
+      <c r="K132" s="35"/>
+      <c r="L132" s="34" t="s">
+        <v>128</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="C133" s="10"/>
-      <c r="E133" s="35">
-        <v>1165.0</v>
-      </c>
-      <c r="F133" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G133" s="35">
+      <c r="E133" s="34">
+        <v>1157.0</v>
+      </c>
+      <c r="F133" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G133" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="H133" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="I133" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="35"/>
+      <c r="K133" s="34">
         <v>2.0</v>
       </c>
-      <c r="H133" s="35">
-        <v>10.0</v>
-      </c>
-      <c r="I133" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J133" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="K133" s="36"/>
-      <c r="L133" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="M133" s="37" t="s">
-        <v>123</v>
+      <c r="L133" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="M133" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="134">
       <c r="C134" s="10"/>
-      <c r="E134" s="35">
-        <v>1166.0</v>
-      </c>
-      <c r="F134" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G134" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="H134" s="35">
-        <v>47.0</v>
-      </c>
-      <c r="I134" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="J134" s="35">
+      <c r="E134" s="34">
+        <v>1158.0</v>
+      </c>
+      <c r="F134" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G134" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="H134" s="34">
+        <v>23.0</v>
+      </c>
+      <c r="I134" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="34">
         <v>13.0</v>
       </c>
-      <c r="K134" s="36"/>
-      <c r="L134" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="M134" s="37" t="s">
-        <v>123</v>
+      <c r="K134" s="35"/>
+      <c r="L134" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="M134" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="135">
       <c r="C135" s="10"/>
-      <c r="E135" s="11">
-        <v>1067.0</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G135" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="H135" s="38">
-        <v>10.0</v>
-      </c>
-      <c r="I135" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="J135" s="38"/>
-      <c r="K135" s="38">
-        <v>2.0</v>
-      </c>
-      <c r="L135" s="38" t="s">
-        <v>116</v>
+      <c r="E135" s="34">
+        <v>1159.0</v>
+      </c>
+      <c r="F135" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G135" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="H135" s="34">
+        <v>31.0</v>
+      </c>
+      <c r="I135" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J135" s="34">
+        <v>13.0</v>
+      </c>
+      <c r="K135" s="35"/>
+      <c r="L135" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="M135" s="11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136">
       <c r="C136" s="10"/>
-      <c r="E136" s="11">
-        <v>1167.0</v>
-      </c>
-      <c r="F136" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G136" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="H136" s="11">
-        <v>-10.0</v>
-      </c>
-      <c r="I136" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J136" s="11">
-        <v>20.0</v>
-      </c>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11" t="s">
-        <v>61</v>
+      <c r="E136" s="34">
+        <v>1160.0</v>
+      </c>
+      <c r="F136" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G136" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="H136" s="34">
+        <v>39.0</v>
+      </c>
+      <c r="I136" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="34">
+        <v>13.0</v>
+      </c>
+      <c r="K136" s="35"/>
+      <c r="L136" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="M136" s="11" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137">
       <c r="C137" s="10"/>
-      <c r="E137" s="11">
-        <v>1168.0</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G137" s="11">
+      <c r="E137" s="34">
+        <v>1161.0</v>
+      </c>
+      <c r="F137" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G137" s="34">
         <v>4.0</v>
       </c>
-      <c r="H137" s="11">
-        <v>-20.0</v>
-      </c>
-      <c r="I137" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J137" s="11">
-        <v>20.0</v>
-      </c>
-      <c r="K137" s="11"/>
-      <c r="L137" s="11" t="s">
-        <v>61</v>
+      <c r="H137" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="I137" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="J137" s="34">
+        <v>13.0</v>
+      </c>
+      <c r="K137" s="35"/>
+      <c r="L137" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="M137" s="11" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138">
       <c r="C138" s="10"/>
+      <c r="E138" s="34">
+        <v>1162.0</v>
+      </c>
+      <c r="F138" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G138" s="34">
+        <v>6.0</v>
+      </c>
+      <c r="H138" s="34">
+        <v>20.0</v>
+      </c>
+      <c r="I138" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="J138" s="34">
+        <v>13.0</v>
+      </c>
+      <c r="K138" s="35"/>
+      <c r="L138" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="139">
       <c r="C139" s="10"/>
+      <c r="E139" s="34">
+        <v>1163.0</v>
+      </c>
+      <c r="F139" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G139" s="34">
+        <v>6.0</v>
+      </c>
+      <c r="H139" s="34">
+        <v>40.0</v>
+      </c>
+      <c r="I139" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="J139" s="34">
+        <v>13.0</v>
+      </c>
+      <c r="K139" s="35"/>
+      <c r="L139" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="M139" s="11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="140">
       <c r="C140" s="10"/>
+      <c r="E140" s="34">
+        <v>1164.0</v>
+      </c>
+      <c r="F140" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G140" s="34">
+        <v>6.0</v>
+      </c>
+      <c r="H140" s="34">
+        <v>60.0</v>
+      </c>
+      <c r="I140" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="J140" s="34">
+        <v>13.0</v>
+      </c>
+      <c r="K140" s="35"/>
+      <c r="L140" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="141">
       <c r="C141" s="10"/>
+      <c r="E141" s="34">
+        <v>1165.0</v>
+      </c>
+      <c r="F141" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="H141" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="I141" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K141" s="35"/>
+      <c r="L141" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="M141" s="36" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="142">
       <c r="C142" s="10"/>
+      <c r="E142" s="34">
+        <v>1166.0</v>
+      </c>
+      <c r="F142" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G142" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="H142" s="34">
+        <v>47.0</v>
+      </c>
+      <c r="I142" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="34">
+        <v>13.0</v>
+      </c>
+      <c r="K142" s="35"/>
+      <c r="L142" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="M142" s="36" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="143">
       <c r="C143" s="10"/>
+      <c r="E143" s="11">
+        <v>1067.0</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G143" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="H143" s="37">
+        <v>10.0</v>
+      </c>
+      <c r="I143" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="37"/>
+      <c r="K143" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="L143" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="M143" s="11" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="144">
       <c r="C144" s="10"/>
+      <c r="E144" s="11">
+        <v>1167.0</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G144" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H144" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I144" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J144" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M144" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="145">
       <c r="C145" s="10"/>
+      <c r="E145" s="11">
+        <v>1168.0</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G145" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H145" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="I145" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J145" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M145" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="146">
       <c r="C146" s="10"/>
+      <c r="E146" s="11">
+        <v>1169.0</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G146" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H146" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I146" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J146" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M146" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="147">
       <c r="C147" s="10"/>
+      <c r="E147" s="11">
+        <v>1170.0</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G147" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="H147" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="I147" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J147" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M147" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="148">
       <c r="C148" s="10"/>
@@ -5146,6 +5400,7 @@
     </row>
     <row r="151">
       <c r="C151" s="10"/>
+      <c r="F151" s="38"/>
     </row>
     <row r="152">
       <c r="C152" s="10"/>
@@ -7604,7 +7859,43 @@
     <row r="970">
       <c r="C970" s="10"/>
     </row>
+    <row r="971">
+      <c r="C971" s="10"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="10"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="10"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="10"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="10"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="10"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="10"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="10"/>
+    </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{038ACB99-DAC8-4C60-A4AB-BA268D836788}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$G$1:$G$978">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="4"/>
+            <filter val="skill_type"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+  </customSheetViews>
   <hyperlinks>
     <hyperlink r:id="rId1" location="%E6%8A%80%E8%83%BD%E7%B1%BB%E5%9E%8B" ref="C25"/>
     <hyperlink r:id="rId2" location="%E7%90%83%E7%B1%BB%E5%9E%8B" ref="C29"/>
@@ -7640,7 +7931,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -7680,7 +7971,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="41" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -7700,7 +7991,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
@@ -7720,7 +8011,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
@@ -7760,7 +8051,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
       <c r="J7" s="21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -7780,7 +8071,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="41" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -7800,7 +8091,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -7820,7 +8111,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -7860,7 +8151,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -7880,7 +8171,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="41" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -7900,7 +8191,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -7920,7 +8211,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -7940,7 +8231,7 @@
       <c r="D18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="16">
         <v>8.0</v>
       </c>
@@ -7948,7 +8239,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -7960,7 +8251,7 @@
       <c r="D19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="16">
         <v>16.0</v>
       </c>
@@ -7968,7 +8259,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -7980,7 +8271,7 @@
       <c r="D20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="16">
         <v>24.0</v>
       </c>
@@ -7988,7 +8279,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -7998,9 +8289,9 @@
         <v>1083.0</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="42"/>
+        <v>112</v>
+      </c>
+      <c r="E21" s="30"/>
       <c r="F21" s="16">
         <v>20.0</v>
       </c>
@@ -8008,7 +8299,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -8020,7 +8311,7 @@
       <c r="D22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="42"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="16">
         <v>29.0</v>
       </c>
@@ -8028,7 +8319,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -8040,7 +8331,7 @@
       <c r="D23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="16">
         <v>34.0</v>
       </c>
@@ -8048,7 +8339,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -8060,7 +8351,7 @@
       <c r="D24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="16">
         <v>39.0</v>
       </c>
@@ -8068,7 +8359,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -8078,9 +8369,9 @@
         <v>1087.0</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="42"/>
+        <v>112</v>
+      </c>
+      <c r="E25" s="30"/>
       <c r="F25" s="16">
         <v>35.0</v>
       </c>
@@ -8088,7 +8379,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -8100,7 +8391,7 @@
       <c r="D26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="16">
         <v>44.0</v>
       </c>
@@ -8108,7 +8399,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -8120,15 +8411,15 @@
       <c r="D27" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43">
+      <c r="E27" s="30"/>
+      <c r="F27" s="42">
         <v>0.1</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28">
@@ -8140,7 +8431,7 @@
       <c r="D28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="16">
         <v>49.0</v>
       </c>
@@ -8148,7 +8439,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -8160,15 +8451,15 @@
       <c r="D29" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43">
+      <c r="E29" s="30"/>
+      <c r="F29" s="42">
         <v>0.2</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30">
@@ -8180,7 +8471,7 @@
       <c r="D30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="16">
         <v>54.0</v>
       </c>
@@ -8188,7 +8479,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
@@ -8200,15 +8491,15 @@
       <c r="D31" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43">
+      <c r="E31" s="30"/>
+      <c r="F31" s="42">
         <v>0.4</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32">
@@ -8218,9 +8509,9 @@
         <v>1094.0</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="42"/>
+        <v>112</v>
+      </c>
+      <c r="E32" s="30"/>
       <c r="F32" s="16">
         <v>55.0</v>
       </c>
@@ -8228,7 +8519,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -8238,17 +8529,17 @@
         <v>1095.0</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="42"/>
+        <v>116</v>
+      </c>
+      <c r="E33" s="30"/>
       <c r="F33" s="16">
         <v>20.0</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="31" t="s">
-        <v>115</v>
+      <c r="J33" s="29" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -8258,17 +8549,17 @@
         <v>1096.0</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43">
+        <v>145</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="42">
         <v>0.1</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/CourseCardSystem/Skill/SkillConfig.xlsx
+++ b/CourseCardSystem/Skill/SkillConfig.xlsx
@@ -7,17 +7,17 @@
     <sheet state="visible" name="other" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_038ACB99_DAC8_4C60_A4AB_BA268D836788_.wvu.FilterData">Sheet1!$G$1:$G$978</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_49D8A681_B5F6_4C8C_832C_A85C1D33DF43_.wvu.FilterData">Sheet1!$G$1:$G$978</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{038ACB99-DAC8-4C60-A4AB-BA268D836788}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{49D8A681-B5F6-4C8C-832C-A85C1D33DF43}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="147">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -330,19 +330,22 @@
     <t>wxj</t>
   </si>
   <si>
+    <t>jump ball bounce +4%</t>
+  </si>
+  <si>
+    <t>jump ball power +2%</t>
+  </si>
+  <si>
+    <t>jump ball power +5%</t>
+  </si>
+  <si>
+    <t>earth_top_spin +10</t>
+  </si>
+  <si>
+    <t>moon_top_spin +10</t>
+  </si>
+  <si>
     <t>jump ball bounce +5%</t>
-  </si>
-  <si>
-    <t>jump ball power +2%</t>
-  </si>
-  <si>
-    <t>jump ball power +5%</t>
-  </si>
-  <si>
-    <t>earth_top_spin +10</t>
-  </si>
-  <si>
-    <t>moon_top_spin +10</t>
   </si>
   <si>
     <t>skill_moon_reduce_wind</t>
@@ -3181,7 +3184,7 @@
         <v>3.0</v>
       </c>
       <c r="H67" s="23">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I67" s="25">
         <v>0.0</v>
@@ -3321,7 +3324,7 @@
         <v>3.0</v>
       </c>
       <c r="H72" s="23">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="I72" s="25">
         <v>0.0</v>
@@ -3461,7 +3464,7 @@
         <v>3.0</v>
       </c>
       <c r="H77" s="23">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="I77" s="25">
         <v>0.0</v>
@@ -3471,7 +3474,7 @@
         <v>2.0</v>
       </c>
       <c r="L77" s="26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M77" s="11" t="s">
         <v>102</v>
@@ -3517,7 +3520,7 @@
         <v>1.0</v>
       </c>
       <c r="H79" s="23">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="I79" s="25">
         <v>0.0</v>
@@ -3527,7 +3530,7 @@
         <v>2.0</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="M79" s="11" t="s">
         <v>102</v>
@@ -3545,7 +3548,7 @@
         <v>1.0</v>
       </c>
       <c r="H80" s="23">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="I80" s="25">
         <v>0.0</v>
@@ -3649,7 +3652,7 @@
         <v>1079.0</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G84" s="23">
         <v>4.0</v>
@@ -3665,7 +3668,7 @@
       </c>
       <c r="K84" s="27"/>
       <c r="L84" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M84" s="11" t="s">
         <v>102</v>
@@ -3774,10 +3777,10 @@
         <v>2.0</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89">
@@ -3802,10 +3805,10 @@
         <v>2.0</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90">
@@ -3830,10 +3833,10 @@
         <v>2.0</v>
       </c>
       <c r="L90" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91">
@@ -3842,7 +3845,7 @@
         <v>1083.0</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G91" s="16">
         <v>1.0</v>
@@ -3858,10 +3861,10 @@
       </c>
       <c r="K91" s="16"/>
       <c r="L91" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92">
@@ -3889,7 +3892,7 @@
         <v>105</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
@@ -3917,7 +3920,7 @@
         <v>105</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94">
@@ -3945,7 +3948,7 @@
         <v>105</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95">
@@ -3954,7 +3957,7 @@
         <v>1087.0</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G95" s="16">
         <v>1.0</v>
@@ -3970,10 +3973,10 @@
       </c>
       <c r="K95" s="16"/>
       <c r="L95" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96">
@@ -4001,7 +4004,7 @@
         <v>105</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97">
@@ -4010,7 +4013,7 @@
         <v>1089.0</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G97" s="16">
         <v>4.0</v>
@@ -4026,10 +4029,10 @@
       </c>
       <c r="K97" s="16"/>
       <c r="L97" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98">
@@ -4057,7 +4060,7 @@
         <v>105</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
@@ -4066,7 +4069,7 @@
         <v>1091.0</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G99" s="16">
         <v>4.0</v>
@@ -4082,10 +4085,10 @@
       </c>
       <c r="K99" s="16"/>
       <c r="L99" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100">
@@ -4113,7 +4116,7 @@
         <v>105</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
@@ -4122,7 +4125,7 @@
         <v>1093.0</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G101" s="16">
         <v>4.0</v>
@@ -4138,10 +4141,10 @@
       </c>
       <c r="K101" s="16"/>
       <c r="L101" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102">
@@ -4150,7 +4153,7 @@
         <v>1094.0</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G102" s="16">
         <v>1.0</v>
@@ -4166,10 +4169,10 @@
       </c>
       <c r="K102" s="16"/>
       <c r="L102" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M102" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103">
@@ -4178,7 +4181,7 @@
         <v>1095.0</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G103" s="16">
         <v>1.0</v>
@@ -4194,10 +4197,10 @@
       </c>
       <c r="K103" s="16"/>
       <c r="L103" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
@@ -4223,10 +4226,10 @@
         <v>2.0</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105">
@@ -4255,7 +4258,7 @@
         <v>33</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106">
@@ -4284,7 +4287,7 @@
         <v>36</v>
       </c>
       <c r="M106" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107">
@@ -4313,7 +4316,7 @@
         <v>38</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108">
@@ -4339,7 +4342,7 @@
       </c>
       <c r="L108" s="32"/>
       <c r="M108" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109">
@@ -4365,7 +4368,7 @@
       </c>
       <c r="L109" s="32"/>
       <c r="M109" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
@@ -4391,7 +4394,7 @@
       </c>
       <c r="L110" s="32"/>
       <c r="M110" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
@@ -4417,7 +4420,7 @@
       </c>
       <c r="L111" s="32"/>
       <c r="M111" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
@@ -4443,7 +4446,7 @@
       </c>
       <c r="L112" s="32"/>
       <c r="M112" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
@@ -4469,7 +4472,7 @@
       </c>
       <c r="L113" s="32"/>
       <c r="M113" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
@@ -4495,7 +4498,7 @@
       </c>
       <c r="L114" s="32"/>
       <c r="M114" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115">
@@ -4521,7 +4524,7 @@
       </c>
       <c r="L115" s="32"/>
       <c r="M115" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116">
@@ -4547,7 +4550,7 @@
       </c>
       <c r="L116" s="32"/>
       <c r="M116" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
@@ -4573,7 +4576,7 @@
       </c>
       <c r="L117" s="32"/>
       <c r="M117" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118">
@@ -4582,7 +4585,7 @@
         <v>1142.0</v>
       </c>
       <c r="F118" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G118" s="31">
         <v>7.0</v>
@@ -4597,7 +4600,7 @@
       <c r="K118" s="32"/>
       <c r="L118" s="32"/>
       <c r="M118" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119">
@@ -4606,7 +4609,7 @@
         <v>1143.0</v>
       </c>
       <c r="F119" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G119" s="31">
         <v>1.0</v>
@@ -4623,7 +4626,7 @@
       <c r="K119" s="32"/>
       <c r="L119" s="32"/>
       <c r="M119" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120">
@@ -4632,7 +4635,7 @@
         <v>1144.0</v>
       </c>
       <c r="F120" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G120" s="31">
         <v>1.0</v>
@@ -4649,7 +4652,7 @@
       <c r="K120" s="32"/>
       <c r="L120" s="32"/>
       <c r="M120" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121">
@@ -4675,7 +4678,7 @@
       <c r="K121" s="32"/>
       <c r="L121" s="32"/>
       <c r="M121" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122">
@@ -4684,7 +4687,7 @@
         <v>1146.0</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G122" s="31">
         <v>7.0</v>
@@ -4701,7 +4704,7 @@
       <c r="K122" s="32"/>
       <c r="L122" s="32"/>
       <c r="M122" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
@@ -4710,7 +4713,7 @@
         <v>1147.0</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G123" s="31">
         <v>1.0</v>
@@ -4727,7 +4730,7 @@
       <c r="K123" s="32"/>
       <c r="L123" s="32"/>
       <c r="M123" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124">
@@ -4736,7 +4739,7 @@
         <v>1148.0</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G124" s="31">
         <v>1.0</v>
@@ -4753,7 +4756,7 @@
       <c r="K124" s="32"/>
       <c r="L124" s="32"/>
       <c r="M124" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125">
@@ -4779,7 +4782,7 @@
       <c r="K125" s="32"/>
       <c r="L125" s="32"/>
       <c r="M125" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126">
@@ -4805,7 +4808,7 @@
       <c r="K126" s="32"/>
       <c r="L126" s="32"/>
       <c r="M126" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127">
@@ -4814,7 +4817,7 @@
         <v>1151.0</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G127" s="31">
         <v>1.0</v>
@@ -4831,7 +4834,7 @@
       <c r="K127" s="32"/>
       <c r="L127" s="32"/>
       <c r="M127" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128">
@@ -4840,7 +4843,7 @@
         <v>1152.0</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G128" s="31">
         <v>1.0</v>
@@ -4857,7 +4860,7 @@
       <c r="K128" s="32"/>
       <c r="L128" s="32"/>
       <c r="M128" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4886,7 @@
       <c r="K129" s="32"/>
       <c r="L129" s="32"/>
       <c r="M129" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130">
@@ -4892,7 +4895,7 @@
         <v>1154.0</v>
       </c>
       <c r="F130" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G130" s="34">
         <v>1.0</v>
@@ -4908,10 +4911,10 @@
       </c>
       <c r="K130" s="35"/>
       <c r="L130" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131">
@@ -4920,7 +4923,7 @@
         <v>1155.0</v>
       </c>
       <c r="F131" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G131" s="34">
         <v>1.0</v>
@@ -4936,10 +4939,10 @@
       </c>
       <c r="K131" s="35"/>
       <c r="L131" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="M131" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="M131" s="11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="132">
@@ -4947,7 +4950,7 @@
         <v>1156.0</v>
       </c>
       <c r="F132" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G132" s="34">
         <v>1.0</v>
@@ -4963,10 +4966,10 @@
       </c>
       <c r="K132" s="35"/>
       <c r="L132" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133">
@@ -4975,7 +4978,7 @@
         <v>1157.0</v>
       </c>
       <c r="F133" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G133" s="34">
         <v>3.0</v>
@@ -4991,10 +4994,10 @@
         <v>2.0</v>
       </c>
       <c r="L133" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M133" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134">
@@ -5003,7 +5006,7 @@
         <v>1158.0</v>
       </c>
       <c r="F134" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G134" s="34">
         <v>1.0</v>
@@ -5019,10 +5022,10 @@
       </c>
       <c r="K134" s="35"/>
       <c r="L134" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M134" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135">
@@ -5031,7 +5034,7 @@
         <v>1159.0</v>
       </c>
       <c r="F135" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G135" s="34">
         <v>1.0</v>
@@ -5047,10 +5050,10 @@
       </c>
       <c r="K135" s="35"/>
       <c r="L135" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M135" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136">
@@ -5059,7 +5062,7 @@
         <v>1160.0</v>
       </c>
       <c r="F136" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G136" s="34">
         <v>1.0</v>
@@ -5075,10 +5078,10 @@
       </c>
       <c r="K136" s="35"/>
       <c r="L136" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M136" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137">
@@ -5087,7 +5090,7 @@
         <v>1161.0</v>
       </c>
       <c r="F137" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G137" s="34">
         <v>4.0</v>
@@ -5103,10 +5106,10 @@
       </c>
       <c r="K137" s="35"/>
       <c r="L137" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M137" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138">
@@ -5115,7 +5118,7 @@
         <v>1162.0</v>
       </c>
       <c r="F138" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G138" s="34">
         <v>6.0</v>
@@ -5131,10 +5134,10 @@
       </c>
       <c r="K138" s="35"/>
       <c r="L138" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M138" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139">
@@ -5143,7 +5146,7 @@
         <v>1163.0</v>
       </c>
       <c r="F139" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G139" s="34">
         <v>6.0</v>
@@ -5159,10 +5162,10 @@
       </c>
       <c r="K139" s="35"/>
       <c r="L139" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M139" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140">
@@ -5171,7 +5174,7 @@
         <v>1164.0</v>
       </c>
       <c r="F140" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G140" s="34">
         <v>6.0</v>
@@ -5187,10 +5190,10 @@
       </c>
       <c r="K140" s="35"/>
       <c r="L140" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141">
@@ -5215,10 +5218,10 @@
       </c>
       <c r="K141" s="35"/>
       <c r="L141" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M141" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142">
@@ -5227,7 +5230,7 @@
         <v>1166.0</v>
       </c>
       <c r="F142" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G142" s="34">
         <v>1.0</v>
@@ -5243,10 +5246,10 @@
       </c>
       <c r="K142" s="35"/>
       <c r="L142" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M142" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143">
@@ -5271,10 +5274,10 @@
         <v>2.0</v>
       </c>
       <c r="L143" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M143" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144">
@@ -5283,7 +5286,7 @@
         <v>1167.0</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G144" s="11">
         <v>4.0</v>
@@ -5311,7 +5314,7 @@
         <v>1168.0</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G145" s="11">
         <v>4.0</v>
@@ -5339,7 +5342,7 @@
         <v>1169.0</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G146" s="11">
         <v>4.0</v>
@@ -5367,7 +5370,7 @@
         <v>1170.0</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G147" s="11">
         <v>4.0</v>
@@ -7885,7 +7888,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{038ACB99-DAC8-4C60-A4AB-BA268D836788}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{49D8A681-B5F6-4C8C-832C-A85C1D33DF43}" filter="1" showAutoFilter="1">
       <autoFilter ref="$G$1:$G$978">
         <filterColumn colId="0">
           <filters>
@@ -7951,7 +7954,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
@@ -7971,7 +7974,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
@@ -8031,7 +8034,7 @@
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
       <c r="J6" s="21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -8071,7 +8074,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -8131,7 +8134,7 @@
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -8171,7 +8174,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
@@ -8239,7 +8242,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
@@ -8259,7 +8262,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -8279,7 +8282,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -8289,7 +8292,7 @@
         <v>1083.0</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="16">
@@ -8299,7 +8302,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -8369,7 +8372,7 @@
         <v>1087.0</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="16">
@@ -8379,7 +8382,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -8419,7 +8422,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
@@ -8459,7 +8462,7 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30">
@@ -8499,7 +8502,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
@@ -8509,7 +8512,7 @@
         <v>1094.0</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="16">
@@ -8519,7 +8522,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -8529,7 +8532,7 @@
         <v>1095.0</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="16">
@@ -8539,7 +8542,7 @@
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -8549,7 +8552,7 @@
         <v>1096.0</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="42">
@@ -8559,7 +8562,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
